--- a/covid_report.xlsx
+++ b/covid_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J232"/>
+  <dimension ref="A1:J202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,13 +510,13 @@
         <v>40754388</v>
       </c>
       <c r="H2" t="n">
-        <v>3.41</v>
+        <v>3.415</v>
       </c>
       <c r="I2" t="n">
-        <v>90.14</v>
+        <v>90.13800000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>5.94</v>
+        <v>593.8869999999999</v>
       </c>
     </row>
     <row r="3">
@@ -544,13 +544,13 @@
         <v>2866374</v>
       </c>
       <c r="H3" t="n">
-        <v>1.08</v>
+        <v>1.077</v>
       </c>
       <c r="I3" t="n">
-        <v>98.61999999999999</v>
+        <v>98.617</v>
       </c>
       <c r="J3" t="n">
-        <v>5.8</v>
+        <v>579.65</v>
       </c>
     </row>
     <row r="4">
@@ -581,10 +581,10 @@
         <v>2.53</v>
       </c>
       <c r="I4" t="n">
-        <v>67.30000000000001</v>
+        <v>67.29900000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>0.85</v>
+        <v>84.90900000000001</v>
       </c>
     </row>
     <row r="5">
@@ -612,13 +612,13 @@
         <v>77463</v>
       </c>
       <c r="H5" t="n">
-        <v>0.34</v>
+        <v>0.344</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>5.2</v>
+        <v>520.333</v>
       </c>
     </row>
     <row r="6">
@@ -646,13 +646,13 @@
         <v>35027343</v>
       </c>
       <c r="H6" t="n">
-        <v>1.8</v>
+        <v>1.805</v>
       </c>
       <c r="I6" t="n">
-        <v>96.36</v>
+        <v>96.35899999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>13.97</v>
+        <v>1397.407</v>
       </c>
     </row>
     <row r="7">
@@ -680,13 +680,13 @@
         <v>15230</v>
       </c>
       <c r="H7" t="n">
-        <v>0.31</v>
+        <v>0.307</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>13.16</v>
+        <v>1316.137</v>
       </c>
     </row>
     <row r="8">
@@ -714,13 +714,13 @@
         <v>99509</v>
       </c>
       <c r="H8" t="n">
-        <v>1.6</v>
+        <v>1.603</v>
       </c>
       <c r="I8" t="n">
-        <v>98.33</v>
+        <v>98.331</v>
       </c>
       <c r="J8" t="n">
-        <v>2.08</v>
+        <v>207.566</v>
       </c>
     </row>
     <row r="9">
@@ -748,13 +748,13 @@
         <v>46010234</v>
       </c>
       <c r="H9" t="n">
-        <v>1.29</v>
+        <v>1.292</v>
       </c>
       <c r="I9" t="n">
-        <v>98.7</v>
+        <v>98.70099999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>3.53</v>
+        <v>352.617</v>
       </c>
     </row>
     <row r="10">
@@ -782,7561 +782,6541 @@
         <v>2971966</v>
       </c>
       <c r="H10" t="n">
-        <v>1.94</v>
+        <v>1.943</v>
       </c>
       <c r="I10" t="n">
-        <v>96.31</v>
+        <v>96.31100000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>7.18</v>
+        <v>717.724</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Aruba</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44224</v>
+        <v>11853144</v>
       </c>
       <c r="C11" t="n">
-        <v>292</v>
+        <v>24414</v>
       </c>
       <c r="D11" t="n">
-        <v>42438</v>
+        <v>11820014</v>
       </c>
       <c r="E11" t="n">
-        <v>1494</v>
+        <v>8716</v>
       </c>
       <c r="F11" t="n">
-        <v>177885</v>
+        <v>81916639</v>
       </c>
       <c r="G11" t="n">
-        <v>107609</v>
+        <v>26068792</v>
       </c>
       <c r="H11" t="n">
-        <v>0.66</v>
+        <v>0.206</v>
       </c>
       <c r="I11" t="n">
-        <v>95.96000000000001</v>
+        <v>99.72</v>
       </c>
       <c r="J11" t="n">
-        <v>4.02</v>
+        <v>691.096</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11853144</v>
+        <v>6081287</v>
       </c>
       <c r="C12" t="n">
-        <v>24414</v>
+        <v>22542</v>
       </c>
       <c r="D12" t="n">
-        <v>11820014</v>
+        <v>6054934</v>
       </c>
       <c r="E12" t="n">
-        <v>8716</v>
+        <v>3811</v>
       </c>
       <c r="F12" t="n">
-        <v>81916639</v>
+        <v>211273524</v>
       </c>
       <c r="G12" t="n">
-        <v>26068792</v>
+        <v>9066710</v>
       </c>
       <c r="H12" t="n">
-        <v>0.21</v>
+        <v>0.371</v>
       </c>
       <c r="I12" t="n">
-        <v>99.72</v>
+        <v>99.56699999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>6.91</v>
+        <v>3474.158</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6081287</v>
+        <v>835234</v>
       </c>
       <c r="C13" t="n">
-        <v>22542</v>
+        <v>10400</v>
       </c>
       <c r="D13" t="n">
-        <v>6054934</v>
+        <v>824089</v>
       </c>
       <c r="E13" t="n">
-        <v>3811</v>
+        <v>745</v>
       </c>
       <c r="F13" t="n">
-        <v>211273524</v>
+        <v>7748050</v>
       </c>
       <c r="G13" t="n">
-        <v>9066710</v>
+        <v>10300205</v>
       </c>
       <c r="H13" t="n">
-        <v>0.37</v>
+        <v>1.245</v>
       </c>
       <c r="I13" t="n">
-        <v>99.57000000000001</v>
+        <v>98.666</v>
       </c>
       <c r="J13" t="n">
-        <v>34.74</v>
+        <v>927.65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>835234</v>
+        <v>38084</v>
       </c>
       <c r="C14" t="n">
-        <v>10400</v>
+        <v>844</v>
       </c>
       <c r="D14" t="n">
-        <v>824089</v>
+        <v>36366</v>
       </c>
       <c r="E14" t="n">
-        <v>745</v>
+        <v>874</v>
       </c>
       <c r="F14" t="n">
-        <v>7748050</v>
+        <v>257839</v>
       </c>
       <c r="G14" t="n">
-        <v>10300205</v>
+        <v>400516</v>
       </c>
       <c r="H14" t="n">
-        <v>1.25</v>
+        <v>2.216</v>
       </c>
       <c r="I14" t="n">
-        <v>98.67</v>
+        <v>95.489</v>
       </c>
       <c r="J14" t="n">
-        <v>9.279999999999999</v>
+        <v>677.027</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bahamas</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>38084</v>
+        <v>729549</v>
       </c>
       <c r="C15" t="n">
-        <v>844</v>
+        <v>1574</v>
       </c>
       <c r="D15" t="n">
-        <v>36366</v>
+        <v>727915</v>
       </c>
       <c r="E15" t="n">
-        <v>874</v>
+        <v>60</v>
       </c>
       <c r="F15" t="n">
-        <v>257839</v>
+        <v>10948549</v>
       </c>
       <c r="G15" t="n">
-        <v>400516</v>
+        <v>1783983</v>
       </c>
       <c r="H15" t="n">
-        <v>2.22</v>
+        <v>0.216</v>
       </c>
       <c r="I15" t="n">
-        <v>95.48999999999999</v>
+        <v>99.776</v>
       </c>
       <c r="J15" t="n">
-        <v>6.77</v>
+        <v>1500.728</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>729549</v>
+        <v>2049377</v>
       </c>
       <c r="C16" t="n">
-        <v>1574</v>
+        <v>29493</v>
       </c>
       <c r="D16" t="n">
-        <v>727915</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>60</v>
+        <v>2019884</v>
       </c>
       <c r="F16" t="n">
-        <v>10948549</v>
+        <v>15254399</v>
       </c>
       <c r="G16" t="n">
-        <v>1783983</v>
+        <v>167885689</v>
       </c>
       <c r="H16" t="n">
-        <v>0.22</v>
+        <v>1.439</v>
       </c>
       <c r="I16" t="n">
-        <v>99.78</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>15.01</v>
+        <v>744.343</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Barbados</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2049377</v>
+        <v>110578</v>
       </c>
       <c r="C17" t="n">
-        <v>29493</v>
+        <v>648</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>108647</v>
       </c>
       <c r="E17" t="n">
-        <v>2019884</v>
+        <v>1283</v>
       </c>
       <c r="F17" t="n">
-        <v>15254399</v>
+        <v>814159</v>
       </c>
       <c r="G17" t="n">
-        <v>167885689</v>
+        <v>288023</v>
       </c>
       <c r="H17" t="n">
-        <v>1.44</v>
+        <v>0.586</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>98.254</v>
       </c>
       <c r="J17" t="n">
-        <v>7.44</v>
+        <v>736.276</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Barbados</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>110578</v>
+        <v>994037</v>
       </c>
       <c r="C18" t="n">
-        <v>648</v>
+        <v>7118</v>
       </c>
       <c r="D18" t="n">
-        <v>108647</v>
+        <v>985592</v>
       </c>
       <c r="E18" t="n">
-        <v>1283</v>
+        <v>1327</v>
       </c>
       <c r="F18" t="n">
-        <v>814159</v>
+        <v>13646641</v>
       </c>
       <c r="G18" t="n">
-        <v>288023</v>
+        <v>9432800</v>
       </c>
       <c r="H18" t="n">
-        <v>0.59</v>
+        <v>0.716</v>
       </c>
       <c r="I18" t="n">
-        <v>98.25</v>
+        <v>99.15000000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>7.36</v>
+        <v>1372.85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>994037</v>
+        <v>4861695</v>
       </c>
       <c r="C19" t="n">
-        <v>7118</v>
+        <v>34376</v>
       </c>
       <c r="D19" t="n">
-        <v>985592</v>
+        <v>4826798</v>
       </c>
       <c r="E19" t="n">
-        <v>1327</v>
+        <v>521</v>
       </c>
       <c r="F19" t="n">
-        <v>13646641</v>
+        <v>37454182</v>
       </c>
       <c r="G19" t="n">
-        <v>9432800</v>
+        <v>11668278</v>
       </c>
       <c r="H19" t="n">
-        <v>0.72</v>
+        <v>0.707</v>
       </c>
       <c r="I19" t="n">
-        <v>99.15000000000001</v>
+        <v>99.282</v>
       </c>
       <c r="J19" t="n">
-        <v>13.73</v>
+        <v>770.393</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4861695</v>
+        <v>71409</v>
       </c>
       <c r="C20" t="n">
-        <v>34376</v>
+        <v>688</v>
       </c>
       <c r="D20" t="n">
-        <v>4826798</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>521</v>
+        <v>70721</v>
       </c>
       <c r="F20" t="n">
-        <v>37454182</v>
+        <v>576016</v>
       </c>
       <c r="G20" t="n">
-        <v>11668278</v>
+        <v>412190</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7100000000000001</v>
+        <v>0.963</v>
       </c>
       <c r="I20" t="n">
-        <v>99.28</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>7.7</v>
+        <v>806.643</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>71409</v>
+        <v>28036</v>
       </c>
       <c r="C21" t="n">
-        <v>688</v>
+        <v>163</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>27847</v>
       </c>
       <c r="E21" t="n">
-        <v>70721</v>
+        <v>26</v>
       </c>
       <c r="F21" t="n">
-        <v>576016</v>
+        <v>604310</v>
       </c>
       <c r="G21" t="n">
-        <v>412190</v>
+        <v>12784726</v>
       </c>
       <c r="H21" t="n">
-        <v>0.96</v>
+        <v>0.581</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>99.32599999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>8.07</v>
+        <v>2155.479</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Benin</t>
+          <t>Bermuda</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>28036</v>
+        <v>18860</v>
       </c>
       <c r="C22" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D22" t="n">
-        <v>27847</v>
+        <v>18685</v>
       </c>
       <c r="E22" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>604310</v>
+        <v>1029558</v>
       </c>
       <c r="G22" t="n">
-        <v>12784726</v>
+        <v>61939</v>
       </c>
       <c r="H22" t="n">
-        <v>0.58</v>
+        <v>0.875</v>
       </c>
       <c r="I22" t="n">
-        <v>99.33</v>
+        <v>99.072</v>
       </c>
       <c r="J22" t="n">
-        <v>21.55</v>
+        <v>5458.95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Bermuda</t>
+          <t>Bhutan</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>18860</v>
+        <v>62697</v>
       </c>
       <c r="C23" t="n">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="D23" t="n">
-        <v>18685</v>
+        <v>61564</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>1112</v>
       </c>
       <c r="F23" t="n">
-        <v>1029558</v>
+        <v>2303734</v>
       </c>
       <c r="G23" t="n">
-        <v>61939</v>
+        <v>787941</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8699999999999999</v>
+        <v>0.033</v>
       </c>
       <c r="I23" t="n">
-        <v>99.07000000000001</v>
+        <v>98.193</v>
       </c>
       <c r="J23" t="n">
-        <v>54.59</v>
+        <v>3674.393</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Bhutan</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>62697</v>
+        <v>1212131</v>
       </c>
       <c r="C24" t="n">
-        <v>21</v>
+        <v>22407</v>
       </c>
       <c r="D24" t="n">
-        <v>61564</v>
+        <v>1177145</v>
       </c>
       <c r="E24" t="n">
-        <v>1112</v>
+        <v>12579</v>
       </c>
       <c r="F24" t="n">
-        <v>2303734</v>
+        <v>2710261</v>
       </c>
       <c r="G24" t="n">
-        <v>787941</v>
+        <v>11992656</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03</v>
+        <v>1.849</v>
       </c>
       <c r="I24" t="n">
-        <v>98.19</v>
+        <v>97.114</v>
       </c>
       <c r="J24" t="n">
-        <v>36.74</v>
+        <v>223.595</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Bosnia</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1212131</v>
+        <v>403615</v>
       </c>
       <c r="C25" t="n">
-        <v>22407</v>
+        <v>16388</v>
       </c>
       <c r="D25" t="n">
-        <v>1177145</v>
+        <v>379084</v>
       </c>
       <c r="E25" t="n">
-        <v>12579</v>
+        <v>8143</v>
       </c>
       <c r="F25" t="n">
-        <v>2710261</v>
+        <v>1884721</v>
       </c>
       <c r="G25" t="n">
-        <v>11992656</v>
+        <v>3249317</v>
       </c>
       <c r="H25" t="n">
-        <v>1.85</v>
+        <v>4.06</v>
       </c>
       <c r="I25" t="n">
-        <v>97.11</v>
+        <v>93.922</v>
       </c>
       <c r="J25" t="n">
-        <v>2.24</v>
+        <v>466.96</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Bosnia</t>
+          <t>Botswana</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>403615</v>
+        <v>330638</v>
       </c>
       <c r="C26" t="n">
-        <v>16388</v>
+        <v>2801</v>
       </c>
       <c r="D26" t="n">
-        <v>379084</v>
+        <v>327049</v>
       </c>
       <c r="E26" t="n">
-        <v>8143</v>
+        <v>788</v>
       </c>
       <c r="F26" t="n">
-        <v>1884721</v>
+        <v>2026898</v>
       </c>
       <c r="G26" t="n">
-        <v>3249317</v>
+        <v>2441162</v>
       </c>
       <c r="H26" t="n">
-        <v>4.06</v>
+        <v>0.847</v>
       </c>
       <c r="I26" t="n">
-        <v>93.92</v>
+        <v>98.91500000000001</v>
       </c>
       <c r="J26" t="n">
-        <v>4.67</v>
+        <v>613.026</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Botswana</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>330638</v>
+        <v>38743918</v>
       </c>
       <c r="C27" t="n">
-        <v>2801</v>
+        <v>711380</v>
       </c>
       <c r="D27" t="n">
-        <v>327049</v>
+        <v>36249161</v>
       </c>
       <c r="E27" t="n">
-        <v>788</v>
+        <v>1783377</v>
       </c>
       <c r="F27" t="n">
-        <v>2026898</v>
+        <v>63776166</v>
       </c>
       <c r="G27" t="n">
-        <v>2441162</v>
+        <v>215353593</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8500000000000001</v>
+        <v>1.836</v>
       </c>
       <c r="I27" t="n">
-        <v>98.91</v>
+        <v>93.56100000000001</v>
       </c>
       <c r="J27" t="n">
-        <v>6.13</v>
+        <v>164.609</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brunei</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38743918</v>
+        <v>343719</v>
       </c>
       <c r="C28" t="n">
-        <v>711380</v>
+        <v>225</v>
       </c>
       <c r="D28" t="n">
-        <v>36249161</v>
+        <v>243601</v>
       </c>
       <c r="E28" t="n">
-        <v>1783377</v>
+        <v>99893</v>
       </c>
       <c r="F28" t="n">
-        <v>63776166</v>
+        <v>717784</v>
       </c>
       <c r="G28" t="n">
-        <v>215353593</v>
+        <v>445431</v>
       </c>
       <c r="H28" t="n">
-        <v>1.84</v>
+        <v>0.065</v>
       </c>
       <c r="I28" t="n">
-        <v>93.56</v>
+        <v>70.872</v>
       </c>
       <c r="J28" t="n">
-        <v>1.65</v>
+        <v>208.829</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>British Virgin Islands</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7392</v>
+        <v>1339851</v>
       </c>
       <c r="C29" t="n">
-        <v>64</v>
+        <v>38748</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1292944</v>
       </c>
       <c r="E29" t="n">
-        <v>7328</v>
+        <v>8159</v>
       </c>
       <c r="F29" t="n">
-        <v>107339</v>
+        <v>11671043</v>
       </c>
       <c r="G29" t="n">
-        <v>30596</v>
+        <v>6844597</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8699999999999999</v>
+        <v>2.892</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>96.499</v>
       </c>
       <c r="J29" t="n">
-        <v>14.52</v>
+        <v>871.0700000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Brunei</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>343719</v>
+        <v>22114</v>
       </c>
       <c r="C30" t="n">
-        <v>225</v>
+        <v>400</v>
       </c>
       <c r="D30" t="n">
-        <v>243601</v>
+        <v>21596</v>
       </c>
       <c r="E30" t="n">
-        <v>99893</v>
+        <v>118</v>
       </c>
       <c r="F30" t="n">
-        <v>717784</v>
+        <v>248995</v>
       </c>
       <c r="G30" t="n">
-        <v>445431</v>
+        <v>22102838</v>
       </c>
       <c r="H30" t="n">
-        <v>0.06999999999999999</v>
+        <v>1.809</v>
       </c>
       <c r="I30" t="n">
-        <v>70.87</v>
+        <v>97.658</v>
       </c>
       <c r="J30" t="n">
-        <v>2.09</v>
+        <v>1125.961</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Burundi</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1339851</v>
+        <v>54721</v>
       </c>
       <c r="C31" t="n">
-        <v>38748</v>
+        <v>38</v>
       </c>
       <c r="D31" t="n">
-        <v>1292944</v>
+        <v>53569</v>
       </c>
       <c r="E31" t="n">
-        <v>8159</v>
+        <v>1114</v>
       </c>
       <c r="F31" t="n">
-        <v>11671043</v>
+        <v>345742</v>
       </c>
       <c r="G31" t="n">
-        <v>6844597</v>
+        <v>12624840</v>
       </c>
       <c r="H31" t="n">
-        <v>2.89</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>96.5</v>
+        <v>97.895</v>
       </c>
       <c r="J31" t="n">
-        <v>8.710000000000001</v>
+        <v>631.827</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>22114</v>
+        <v>139103</v>
       </c>
       <c r="C32" t="n">
-        <v>400</v>
+        <v>3056</v>
       </c>
       <c r="D32" t="n">
-        <v>21596</v>
+        <v>136044</v>
       </c>
       <c r="E32" t="n">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="F32" t="n">
-        <v>248995</v>
+        <v>3091420</v>
       </c>
       <c r="G32" t="n">
-        <v>22102838</v>
+        <v>17168639</v>
       </c>
       <c r="H32" t="n">
-        <v>1.81</v>
+        <v>2.197</v>
       </c>
       <c r="I32" t="n">
-        <v>97.66</v>
+        <v>97.801</v>
       </c>
       <c r="J32" t="n">
-        <v>11.26</v>
+        <v>2222.396</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Burundi</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>54721</v>
+        <v>125379</v>
       </c>
       <c r="C33" t="n">
-        <v>38</v>
+        <v>1974</v>
       </c>
       <c r="D33" t="n">
-        <v>53569</v>
+        <v>123280</v>
       </c>
       <c r="E33" t="n">
-        <v>1114</v>
+        <v>125</v>
       </c>
       <c r="F33" t="n">
-        <v>345742</v>
+        <v>1751774</v>
       </c>
       <c r="G33" t="n">
-        <v>12624840</v>
+        <v>27911548</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06999999999999999</v>
+        <v>1.574</v>
       </c>
       <c r="I33" t="n">
-        <v>97.89</v>
+        <v>98.32599999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>6.32</v>
+        <v>1397.183</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Cabo Verde</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64477</v>
+        <v>4946090</v>
       </c>
       <c r="C34" t="n">
-        <v>417</v>
+        <v>59034</v>
       </c>
       <c r="D34" t="n">
-        <v>63755</v>
+        <v>4881312</v>
       </c>
       <c r="E34" t="n">
-        <v>305</v>
+        <v>5744</v>
       </c>
       <c r="F34" t="n">
-        <v>401622</v>
+        <v>66572774</v>
       </c>
       <c r="G34" t="n">
-        <v>567678</v>
+        <v>38388419</v>
       </c>
       <c r="H34" t="n">
-        <v>0.65</v>
+        <v>1.194</v>
       </c>
       <c r="I34" t="n">
-        <v>98.88</v>
+        <v>98.69</v>
       </c>
       <c r="J34" t="n">
-        <v>6.23</v>
+        <v>1345.968</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Central African Republic</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>139103</v>
+        <v>15440</v>
       </c>
       <c r="C35" t="n">
-        <v>3056</v>
+        <v>113</v>
       </c>
       <c r="D35" t="n">
-        <v>136044</v>
+        <v>15200</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="F35" t="n">
-        <v>3091420</v>
+        <v>81294</v>
       </c>
       <c r="G35" t="n">
-        <v>17168639</v>
+        <v>5016678</v>
       </c>
       <c r="H35" t="n">
-        <v>2.2</v>
+        <v>0.732</v>
       </c>
       <c r="I35" t="n">
-        <v>97.8</v>
+        <v>98.446</v>
       </c>
       <c r="J35" t="n">
-        <v>22.22</v>
+        <v>526.516</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>125379</v>
+        <v>7701</v>
       </c>
       <c r="C36" t="n">
-        <v>1974</v>
+        <v>194</v>
       </c>
       <c r="D36" t="n">
-        <v>123280</v>
+        <v>4874</v>
       </c>
       <c r="E36" t="n">
-        <v>125</v>
+        <v>2633</v>
       </c>
       <c r="F36" t="n">
-        <v>1751774</v>
+        <v>191341</v>
       </c>
       <c r="G36" t="n">
-        <v>27911548</v>
+        <v>17413580</v>
       </c>
       <c r="H36" t="n">
-        <v>1.57</v>
+        <v>2.519</v>
       </c>
       <c r="I36" t="n">
-        <v>98.33</v>
+        <v>63.29</v>
       </c>
       <c r="J36" t="n">
-        <v>13.97</v>
+        <v>2484.625</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4946090</v>
+        <v>5384853</v>
       </c>
       <c r="C37" t="n">
-        <v>59034</v>
+        <v>64497</v>
       </c>
       <c r="D37" t="n">
-        <v>4881312</v>
+        <v>5252450</v>
       </c>
       <c r="E37" t="n">
-        <v>5744</v>
+        <v>67906</v>
       </c>
       <c r="F37" t="n">
-        <v>66572774</v>
+        <v>50382097</v>
       </c>
       <c r="G37" t="n">
-        <v>38388419</v>
+        <v>19250195</v>
       </c>
       <c r="H37" t="n">
-        <v>1.19</v>
+        <v>1.198</v>
       </c>
       <c r="I37" t="n">
-        <v>98.69</v>
+        <v>97.541</v>
       </c>
       <c r="J37" t="n">
-        <v>13.46</v>
+        <v>935.626</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Caribbean Netherlands</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>11682</v>
+        <v>503302</v>
       </c>
       <c r="C38" t="n">
-        <v>38</v>
+        <v>5272</v>
       </c>
       <c r="D38" t="n">
-        <v>10476</v>
+        <v>379053</v>
       </c>
       <c r="E38" t="n">
-        <v>1168</v>
+        <v>118977</v>
       </c>
       <c r="F38" t="n">
-        <v>30126</v>
+        <v>160000000</v>
       </c>
       <c r="G38" t="n">
-        <v>26647</v>
+        <v>1448471400</v>
       </c>
       <c r="H38" t="n">
-        <v>0.33</v>
+        <v>1.047</v>
       </c>
       <c r="I38" t="n">
-        <v>89.68000000000001</v>
+        <v>75.313</v>
       </c>
       <c r="J38" t="n">
-        <v>2.58</v>
+        <v>31790.058</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Cayman Islands</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>31472</v>
+        <v>6400173</v>
       </c>
       <c r="C39" t="n">
-        <v>37</v>
+        <v>143200</v>
       </c>
       <c r="D39" t="n">
-        <v>8553</v>
+        <v>6212152</v>
       </c>
       <c r="E39" t="n">
-        <v>22882</v>
+        <v>44821</v>
       </c>
       <c r="F39" t="n">
-        <v>222773</v>
+        <v>36951507</v>
       </c>
       <c r="G39" t="n">
-        <v>67277</v>
+        <v>51512762</v>
       </c>
       <c r="H39" t="n">
-        <v>0.12</v>
+        <v>2.237</v>
       </c>
       <c r="I39" t="n">
-        <v>27.18</v>
+        <v>97.062</v>
       </c>
       <c r="J39" t="n">
-        <v>7.08</v>
+        <v>577.352</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>Comoros</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15440</v>
+        <v>9109</v>
       </c>
       <c r="C40" t="n">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="D40" t="n">
-        <v>15200</v>
+        <v>8939</v>
       </c>
       <c r="E40" t="n">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="F40" t="n">
-        <v>81294</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>5016678</v>
+        <v>907419</v>
       </c>
       <c r="H40" t="n">
-        <v>0.73</v>
+        <v>1.767</v>
       </c>
       <c r="I40" t="n">
-        <v>98.45</v>
+        <v>98.134</v>
       </c>
       <c r="J40" t="n">
-        <v>5.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7701</v>
+        <v>25375</v>
       </c>
       <c r="C41" t="n">
-        <v>194</v>
+        <v>386</v>
       </c>
       <c r="D41" t="n">
-        <v>4874</v>
+        <v>24006</v>
       </c>
       <c r="E41" t="n">
-        <v>2633</v>
+        <v>983</v>
       </c>
       <c r="F41" t="n">
-        <v>191341</v>
+        <v>347815</v>
       </c>
       <c r="G41" t="n">
-        <v>17413580</v>
+        <v>5797805</v>
       </c>
       <c r="H41" t="n">
-        <v>2.52</v>
+        <v>1.521</v>
       </c>
       <c r="I41" t="n">
-        <v>63.29</v>
+        <v>94.605</v>
       </c>
       <c r="J41" t="n">
-        <v>24.85</v>
+        <v>1370.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Channel Islands</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>101717</v>
+        <v>1238883</v>
       </c>
       <c r="C42" t="n">
-        <v>228</v>
+        <v>9428</v>
       </c>
       <c r="D42" t="n">
-        <v>101321</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>168</v>
+        <v>1229455</v>
       </c>
       <c r="F42" t="n">
-        <v>1252808</v>
+        <v>4659757</v>
       </c>
       <c r="G42" t="n">
-        <v>176463</v>
+        <v>5182354</v>
       </c>
       <c r="H42" t="n">
-        <v>0.22</v>
+        <v>0.761</v>
       </c>
       <c r="I42" t="n">
-        <v>99.61</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>12.32</v>
+        <v>376.126</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5384853</v>
+        <v>1309728</v>
       </c>
       <c r="C43" t="n">
-        <v>64497</v>
+        <v>18687</v>
       </c>
       <c r="D43" t="n">
-        <v>5252450</v>
+        <v>1258432</v>
       </c>
       <c r="E43" t="n">
-        <v>67906</v>
+        <v>32609</v>
       </c>
       <c r="F43" t="n">
-        <v>50382097</v>
+        <v>5660084</v>
       </c>
       <c r="G43" t="n">
-        <v>19250195</v>
+        <v>4059286</v>
       </c>
       <c r="H43" t="n">
-        <v>1.2</v>
+        <v>1.427</v>
       </c>
       <c r="I43" t="n">
-        <v>97.54000000000001</v>
+        <v>96.083</v>
       </c>
       <c r="J43" t="n">
-        <v>9.359999999999999</v>
+        <v>432.157</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>503302</v>
+        <v>1115251</v>
       </c>
       <c r="C44" t="n">
-        <v>5272</v>
+        <v>8530</v>
       </c>
       <c r="D44" t="n">
-        <v>379053</v>
+        <v>1106660</v>
       </c>
       <c r="E44" t="n">
-        <v>118977</v>
+        <v>61</v>
       </c>
       <c r="F44" t="n">
-        <v>160000000</v>
+        <v>14402674</v>
       </c>
       <c r="G44" t="n">
-        <v>1448471400</v>
+        <v>11305652</v>
       </c>
       <c r="H44" t="n">
-        <v>1.05</v>
+        <v>0.765</v>
       </c>
       <c r="I44" t="n">
-        <v>75.31</v>
+        <v>99.23</v>
       </c>
       <c r="J44" t="n">
-        <v>317.9</v>
+        <v>1291.429</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6400173</v>
+        <v>681110</v>
       </c>
       <c r="C45" t="n">
-        <v>143200</v>
+        <v>1365</v>
       </c>
       <c r="D45" t="n">
-        <v>6212152</v>
+        <v>679745</v>
       </c>
       <c r="E45" t="n">
-        <v>44821</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>36951507</v>
+        <v>9640118</v>
       </c>
       <c r="G45" t="n">
-        <v>51512762</v>
+        <v>1223387</v>
       </c>
       <c r="H45" t="n">
-        <v>2.24</v>
+        <v>0.2</v>
       </c>
       <c r="I45" t="n">
-        <v>97.06</v>
+        <v>99.8</v>
       </c>
       <c r="J45" t="n">
-        <v>5.77</v>
+        <v>1415.354</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9109</v>
+        <v>4759041</v>
       </c>
       <c r="C46" t="n">
-        <v>161</v>
+        <v>43517</v>
       </c>
       <c r="D46" t="n">
-        <v>8939</v>
+        <v>4715206</v>
       </c>
       <c r="E46" t="n">
-        <v>9</v>
+        <v>318</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>57834241</v>
       </c>
       <c r="G46" t="n">
-        <v>907419</v>
+        <v>10736784</v>
       </c>
       <c r="H46" t="n">
-        <v>1.77</v>
+        <v>0.914</v>
       </c>
       <c r="I46" t="n">
-        <v>98.13</v>
+        <v>99.07899999999999</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1215.25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>25375</v>
+        <v>88384</v>
       </c>
       <c r="C47" t="n">
-        <v>386</v>
+        <v>835</v>
       </c>
       <c r="D47" t="n">
-        <v>24006</v>
+        <v>87497</v>
       </c>
       <c r="E47" t="n">
-        <v>983</v>
+        <v>52</v>
       </c>
       <c r="F47" t="n">
-        <v>347815</v>
+        <v>1690934</v>
       </c>
       <c r="G47" t="n">
-        <v>5797805</v>
+        <v>27742298</v>
       </c>
       <c r="H47" t="n">
-        <v>1.52</v>
+        <v>0.945</v>
       </c>
       <c r="I47" t="n">
-        <v>94.59999999999999</v>
+        <v>98.996</v>
       </c>
       <c r="J47" t="n">
-        <v>13.71</v>
+        <v>1913.168</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Cook Islands</t>
+          <t>DRC</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>7203</v>
+        <v>99338</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>1468</v>
       </c>
       <c r="D48" t="n">
-        <v>7150</v>
+        <v>84489</v>
       </c>
       <c r="E48" t="n">
-        <v>51</v>
+        <v>13381</v>
       </c>
       <c r="F48" t="n">
-        <v>19690</v>
+        <v>846704</v>
       </c>
       <c r="G48" t="n">
-        <v>17571</v>
+        <v>95240792</v>
       </c>
       <c r="H48" t="n">
-        <v>0.03</v>
+        <v>1.478</v>
       </c>
       <c r="I48" t="n">
-        <v>99.26000000000001</v>
+        <v>85.05200000000001</v>
       </c>
       <c r="J48" t="n">
-        <v>2.73</v>
+        <v>852.347</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1238883</v>
+        <v>3183756</v>
       </c>
       <c r="C49" t="n">
-        <v>9428</v>
+        <v>8814</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>3174942</v>
       </c>
       <c r="E49" t="n">
-        <v>1229455</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>4659757</v>
+        <v>129333107</v>
       </c>
       <c r="G49" t="n">
-        <v>5182354</v>
+        <v>5834950</v>
       </c>
       <c r="H49" t="n">
-        <v>0.76</v>
+        <v>0.277</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>99.723</v>
       </c>
       <c r="J49" t="n">
-        <v>3.76</v>
+        <v>4062.281</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Djibouti</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1309728</v>
+        <v>15690</v>
       </c>
       <c r="C50" t="n">
-        <v>18687</v>
+        <v>189</v>
       </c>
       <c r="D50" t="n">
-        <v>1258432</v>
+        <v>15427</v>
       </c>
       <c r="E50" t="n">
-        <v>32609</v>
+        <v>74</v>
       </c>
       <c r="F50" t="n">
-        <v>5660084</v>
+        <v>305941</v>
       </c>
       <c r="G50" t="n">
-        <v>4059286</v>
+        <v>1016097</v>
       </c>
       <c r="H50" t="n">
-        <v>1.43</v>
+        <v>1.205</v>
       </c>
       <c r="I50" t="n">
-        <v>96.08</v>
+        <v>98.324</v>
       </c>
       <c r="J50" t="n">
-        <v>4.32</v>
+        <v>1949.911</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Dominica</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1115251</v>
+        <v>16038</v>
       </c>
       <c r="C51" t="n">
-        <v>8530</v>
+        <v>74</v>
       </c>
       <c r="D51" t="n">
-        <v>1106660</v>
+        <v>15964</v>
       </c>
       <c r="E51" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>14402674</v>
+        <v>229344</v>
       </c>
       <c r="G51" t="n">
-        <v>11305652</v>
+        <v>72344</v>
       </c>
       <c r="H51" t="n">
-        <v>0.76</v>
+        <v>0.461</v>
       </c>
       <c r="I51" t="n">
-        <v>99.22999999999999</v>
+        <v>99.539</v>
       </c>
       <c r="J51" t="n">
-        <v>12.91</v>
+        <v>1430.004</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Curaçao</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>45986</v>
+        <v>675890</v>
       </c>
       <c r="C52" t="n">
-        <v>295</v>
+        <v>4384</v>
       </c>
       <c r="D52" t="n">
-        <v>44720</v>
+        <v>671316</v>
       </c>
       <c r="E52" t="n">
-        <v>971</v>
+        <v>190</v>
       </c>
       <c r="F52" t="n">
-        <v>496693</v>
+        <v>3740928</v>
       </c>
       <c r="G52" t="n">
-        <v>165529</v>
+        <v>11056370</v>
       </c>
       <c r="H52" t="n">
-        <v>0.64</v>
+        <v>0.649</v>
       </c>
       <c r="I52" t="n">
-        <v>97.25</v>
+        <v>99.32299999999999</v>
       </c>
       <c r="J52" t="n">
-        <v>10.8</v>
+        <v>553.482</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>681110</v>
+        <v>1070188</v>
       </c>
       <c r="C53" t="n">
-        <v>1365</v>
+        <v>36043</v>
       </c>
       <c r="D53" t="n">
-        <v>679745</v>
+        <v>1034145</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>9640118</v>
+        <v>3082403</v>
       </c>
       <c r="G53" t="n">
-        <v>1223387</v>
+        <v>18113361</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2</v>
+        <v>3.368</v>
       </c>
       <c r="I53" t="n">
-        <v>99.8</v>
+        <v>96.63200000000001</v>
       </c>
       <c r="J53" t="n">
-        <v>14.15</v>
+        <v>288.024</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4759041</v>
+        <v>516023</v>
       </c>
       <c r="C54" t="n">
-        <v>43517</v>
+        <v>24613</v>
       </c>
       <c r="D54" t="n">
-        <v>4715206</v>
+        <v>442182</v>
       </c>
       <c r="E54" t="n">
-        <v>318</v>
+        <v>49228</v>
       </c>
       <c r="F54" t="n">
-        <v>57834241</v>
+        <v>3693367</v>
       </c>
       <c r="G54" t="n">
-        <v>10736784</v>
+        <v>106156692</v>
       </c>
       <c r="H54" t="n">
-        <v>0.91</v>
+        <v>4.77</v>
       </c>
       <c r="I54" t="n">
-        <v>99.08</v>
+        <v>85.69</v>
       </c>
       <c r="J54" t="n">
-        <v>12.15</v>
+        <v>715.737</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Côte d'Ivoire</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>88384</v>
+        <v>201855</v>
       </c>
       <c r="C55" t="n">
-        <v>835</v>
+        <v>4230</v>
       </c>
       <c r="D55" t="n">
-        <v>87497</v>
+        <v>179410</v>
       </c>
       <c r="E55" t="n">
-        <v>52</v>
+        <v>18215</v>
       </c>
       <c r="F55" t="n">
-        <v>1690934</v>
+        <v>2610114</v>
       </c>
       <c r="G55" t="n">
-        <v>27742298</v>
+        <v>6550389</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9400000000000001</v>
+        <v>2.096</v>
       </c>
       <c r="I55" t="n">
-        <v>99</v>
+        <v>88.881</v>
       </c>
       <c r="J55" t="n">
-        <v>19.13</v>
+        <v>1293.064</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DRC</t>
+          <t>Equatorial Guinea</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>99338</v>
+        <v>17229</v>
       </c>
       <c r="C56" t="n">
-        <v>1468</v>
+        <v>183</v>
       </c>
       <c r="D56" t="n">
-        <v>84489</v>
+        <v>16907</v>
       </c>
       <c r="E56" t="n">
-        <v>13381</v>
+        <v>139</v>
       </c>
       <c r="F56" t="n">
-        <v>846704</v>
+        <v>365697</v>
       </c>
       <c r="G56" t="n">
-        <v>95240792</v>
+        <v>1496662</v>
       </c>
       <c r="H56" t="n">
-        <v>1.48</v>
+        <v>1.062</v>
       </c>
       <c r="I56" t="n">
-        <v>85.05</v>
+        <v>98.131</v>
       </c>
       <c r="J56" t="n">
-        <v>8.52</v>
+        <v>2122.567</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3183756</v>
+        <v>10189</v>
       </c>
       <c r="C57" t="n">
-        <v>8814</v>
+        <v>103</v>
       </c>
       <c r="D57" t="n">
-        <v>3174942</v>
+        <v>10086</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>129333107</v>
+        <v>23693</v>
       </c>
       <c r="G57" t="n">
-        <v>5834950</v>
+        <v>3662244</v>
       </c>
       <c r="H57" t="n">
-        <v>0.28</v>
+        <v>1.011</v>
       </c>
       <c r="I57" t="n">
-        <v>99.72</v>
+        <v>98.989</v>
       </c>
       <c r="J57" t="n">
-        <v>40.62</v>
+        <v>232.535</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Diamond Princess</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>712</v>
+        <v>628070</v>
       </c>
       <c r="C58" t="n">
-        <v>13</v>
+        <v>3001</v>
       </c>
       <c r="D58" t="n">
-        <v>699</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>625069</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>6968103</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1321910</v>
       </c>
       <c r="H58" t="n">
-        <v>1.83</v>
+        <v>0.478</v>
       </c>
       <c r="I58" t="n">
-        <v>98.17</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>1109.447</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>15690</v>
+        <v>501157</v>
       </c>
       <c r="C59" t="n">
-        <v>189</v>
+        <v>7574</v>
       </c>
       <c r="D59" t="n">
-        <v>15427</v>
+        <v>488171</v>
       </c>
       <c r="E59" t="n">
-        <v>74</v>
+        <v>5412</v>
       </c>
       <c r="F59" t="n">
-        <v>305941</v>
+        <v>5565340</v>
       </c>
       <c r="G59" t="n">
-        <v>1016097</v>
+        <v>120812698</v>
       </c>
       <c r="H59" t="n">
-        <v>1.2</v>
+        <v>1.511</v>
       </c>
       <c r="I59" t="n">
-        <v>98.31999999999999</v>
+        <v>97.40900000000001</v>
       </c>
       <c r="J59" t="n">
-        <v>19.5</v>
+        <v>1110.498</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Dominica</t>
+          <t>Fiji</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>16038</v>
+        <v>69117</v>
       </c>
       <c r="C60" t="n">
-        <v>74</v>
+        <v>885</v>
       </c>
       <c r="D60" t="n">
-        <v>15964</v>
+        <v>67226</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1006</v>
       </c>
       <c r="F60" t="n">
-        <v>229344</v>
+        <v>672883</v>
       </c>
       <c r="G60" t="n">
-        <v>72344</v>
+        <v>909466</v>
       </c>
       <c r="H60" t="n">
-        <v>0.46</v>
+        <v>1.28</v>
       </c>
       <c r="I60" t="n">
-        <v>99.53999999999999</v>
+        <v>97.264</v>
       </c>
       <c r="J60" t="n">
-        <v>14.3</v>
+        <v>973.542</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>675890</v>
+        <v>1516117</v>
       </c>
       <c r="C61" t="n">
-        <v>4384</v>
+        <v>11958</v>
       </c>
       <c r="D61" t="n">
-        <v>671316</v>
+        <v>1503989</v>
       </c>
       <c r="E61" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="F61" t="n">
-        <v>3740928</v>
+        <v>12108977</v>
       </c>
       <c r="G61" t="n">
-        <v>11056370</v>
+        <v>5554960</v>
       </c>
       <c r="H61" t="n">
-        <v>0.65</v>
+        <v>0.789</v>
       </c>
       <c r="I61" t="n">
-        <v>99.31999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="J61" t="n">
-        <v>5.53</v>
+        <v>798.684</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1070188</v>
+        <v>40138560</v>
       </c>
       <c r="C62" t="n">
-        <v>36043</v>
+        <v>167642</v>
       </c>
       <c r="D62" t="n">
-        <v>1034145</v>
+        <v>39970918</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>3082403</v>
+        <v>271490188</v>
       </c>
       <c r="G62" t="n">
-        <v>18113361</v>
+        <v>65584518</v>
       </c>
       <c r="H62" t="n">
-        <v>3.37</v>
+        <v>0.418</v>
       </c>
       <c r="I62" t="n">
-        <v>96.63000000000001</v>
+        <v>99.58199999999999</v>
       </c>
       <c r="J62" t="n">
-        <v>2.88</v>
+        <v>676.3819999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>French Guiana</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>516023</v>
+        <v>98041</v>
       </c>
       <c r="C63" t="n">
-        <v>24613</v>
+        <v>420</v>
       </c>
       <c r="D63" t="n">
-        <v>442182</v>
+        <v>11254</v>
       </c>
       <c r="E63" t="n">
-        <v>49228</v>
+        <v>86367</v>
       </c>
       <c r="F63" t="n">
-        <v>3693367</v>
+        <v>651257</v>
       </c>
       <c r="G63" t="n">
-        <v>106156692</v>
+        <v>314169</v>
       </c>
       <c r="H63" t="n">
-        <v>4.77</v>
+        <v>0.428</v>
       </c>
       <c r="I63" t="n">
-        <v>85.69</v>
+        <v>11.479</v>
       </c>
       <c r="J63" t="n">
-        <v>7.16</v>
+        <v>664.27</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>French Polynesia</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>201855</v>
+        <v>79254</v>
       </c>
       <c r="C64" t="n">
-        <v>4230</v>
+        <v>650</v>
       </c>
       <c r="D64" t="n">
-        <v>179410</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>18215</v>
+        <v>78604</v>
       </c>
       <c r="F64" t="n">
-        <v>2610114</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>6550389</v>
+        <v>284164</v>
       </c>
       <c r="H64" t="n">
-        <v>2.1</v>
+        <v>0.82</v>
       </c>
       <c r="I64" t="n">
-        <v>88.88000000000001</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>12.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Equatorial Guinea</t>
+          <t>Gabon</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>17229</v>
+        <v>49051</v>
       </c>
       <c r="C65" t="n">
-        <v>183</v>
+        <v>307</v>
       </c>
       <c r="D65" t="n">
-        <v>16907</v>
+        <v>48674</v>
       </c>
       <c r="E65" t="n">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="F65" t="n">
-        <v>365697</v>
+        <v>1621909</v>
       </c>
       <c r="G65" t="n">
-        <v>1496662</v>
+        <v>2331533</v>
       </c>
       <c r="H65" t="n">
-        <v>1.06</v>
+        <v>0.626</v>
       </c>
       <c r="I65" t="n">
-        <v>98.13</v>
+        <v>99.23099999999999</v>
       </c>
       <c r="J65" t="n">
-        <v>21.23</v>
+        <v>3306.577</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>10189</v>
+        <v>12626</v>
       </c>
       <c r="C66" t="n">
-        <v>103</v>
+        <v>372</v>
       </c>
       <c r="D66" t="n">
-        <v>10086</v>
+        <v>12189</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F66" t="n">
-        <v>23693</v>
+        <v>155686</v>
       </c>
       <c r="G66" t="n">
-        <v>3662244</v>
+        <v>2558482</v>
       </c>
       <c r="H66" t="n">
-        <v>1.01</v>
+        <v>2.946</v>
       </c>
       <c r="I66" t="n">
-        <v>98.98999999999999</v>
+        <v>96.539</v>
       </c>
       <c r="J66" t="n">
-        <v>2.33</v>
+        <v>1233.059</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>628070</v>
+        <v>1861665</v>
       </c>
       <c r="C67" t="n">
-        <v>3001</v>
+        <v>17132</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>625069</v>
+        <v>1844533</v>
       </c>
       <c r="F67" t="n">
-        <v>6968103</v>
+        <v>16920079</v>
       </c>
       <c r="G67" t="n">
-        <v>1321910</v>
+        <v>3968738</v>
       </c>
       <c r="H67" t="n">
-        <v>0.48</v>
+        <v>0.92</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>11.09</v>
+        <v>908.8680000000001</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>501157</v>
+        <v>38828995</v>
       </c>
       <c r="C68" t="n">
-        <v>7574</v>
+        <v>183027</v>
       </c>
       <c r="D68" t="n">
-        <v>488171</v>
+        <v>38240600</v>
       </c>
       <c r="E68" t="n">
-        <v>5412</v>
+        <v>405368</v>
       </c>
       <c r="F68" t="n">
-        <v>5565340</v>
+        <v>122332384</v>
       </c>
       <c r="G68" t="n">
-        <v>120812698</v>
+        <v>83883596</v>
       </c>
       <c r="H68" t="n">
-        <v>1.51</v>
+        <v>0.471</v>
       </c>
       <c r="I68" t="n">
-        <v>97.41</v>
+        <v>98.485</v>
       </c>
       <c r="J68" t="n">
-        <v>11.1</v>
+        <v>315.054</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Falkland Islands (Malvinas)</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1930</v>
+        <v>171889</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1462</v>
       </c>
       <c r="D69" t="n">
-        <v>1930</v>
+        <v>170425</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>8632</v>
+        <v>2541625</v>
       </c>
       <c r="G69" t="n">
-        <v>3539</v>
+        <v>32395450</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>0.851</v>
       </c>
       <c r="I69" t="n">
-        <v>100</v>
+        <v>99.148</v>
       </c>
       <c r="J69" t="n">
-        <v>4.47</v>
+        <v>1478.643</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Faroe Islands</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>34658</v>
+        <v>6101379</v>
       </c>
       <c r="C70" t="n">
-        <v>28</v>
+        <v>37869</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>34630</v>
+        <v>6063510</v>
       </c>
       <c r="F70" t="n">
-        <v>778000</v>
+        <v>102228365</v>
       </c>
       <c r="G70" t="n">
-        <v>49233</v>
+        <v>10316637</v>
       </c>
       <c r="H70" t="n">
-        <v>0.08</v>
+        <v>0.621</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>22.45</v>
+        <v>1675.496</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Greenland</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>69117</v>
+        <v>11971</v>
       </c>
       <c r="C71" t="n">
-        <v>885</v>
+        <v>21</v>
       </c>
       <c r="D71" t="n">
-        <v>67226</v>
+        <v>2761</v>
       </c>
       <c r="E71" t="n">
-        <v>1006</v>
+        <v>9189</v>
       </c>
       <c r="F71" t="n">
-        <v>672883</v>
+        <v>164926</v>
       </c>
       <c r="G71" t="n">
-        <v>909466</v>
+        <v>56973</v>
       </c>
       <c r="H71" t="n">
-        <v>1.28</v>
+        <v>0.175</v>
       </c>
       <c r="I71" t="n">
-        <v>97.26000000000001</v>
+        <v>23.064</v>
       </c>
       <c r="J71" t="n">
-        <v>9.74</v>
+        <v>1377.713</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Grenada</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1516117</v>
+        <v>19693</v>
       </c>
       <c r="C72" t="n">
-        <v>11958</v>
+        <v>238</v>
       </c>
       <c r="D72" t="n">
-        <v>1503989</v>
+        <v>19358</v>
       </c>
       <c r="E72" t="n">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="F72" t="n">
-        <v>12108977</v>
+        <v>182981</v>
       </c>
       <c r="G72" t="n">
-        <v>5554960</v>
+        <v>113475</v>
       </c>
       <c r="H72" t="n">
-        <v>0.79</v>
+        <v>1.209</v>
       </c>
       <c r="I72" t="n">
-        <v>99.2</v>
+        <v>98.29900000000001</v>
       </c>
       <c r="J72" t="n">
-        <v>7.99</v>
+        <v>929.168</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>40138560</v>
+        <v>1291293</v>
       </c>
       <c r="C73" t="n">
-        <v>167642</v>
+        <v>20289</v>
       </c>
       <c r="D73" t="n">
-        <v>39970918</v>
+        <v>1269891</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>1113</v>
       </c>
       <c r="F73" t="n">
-        <v>271490188</v>
+        <v>7593848</v>
       </c>
       <c r="G73" t="n">
-        <v>65584518</v>
+        <v>18584039</v>
       </c>
       <c r="H73" t="n">
-        <v>0.42</v>
+        <v>1.571</v>
       </c>
       <c r="I73" t="n">
-        <v>99.58</v>
+        <v>98.343</v>
       </c>
       <c r="J73" t="n">
-        <v>6.76</v>
+        <v>588.081</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>French Guiana</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>98041</v>
+        <v>38572</v>
       </c>
       <c r="C74" t="n">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="D74" t="n">
-        <v>11254</v>
+        <v>37757</v>
       </c>
       <c r="E74" t="n">
-        <v>86367</v>
+        <v>347</v>
       </c>
       <c r="F74" t="n">
-        <v>651257</v>
+        <v>660107</v>
       </c>
       <c r="G74" t="n">
-        <v>314169</v>
+        <v>13865691</v>
       </c>
       <c r="H74" t="n">
-        <v>0.43</v>
+        <v>1.213</v>
       </c>
       <c r="I74" t="n">
-        <v>11.48</v>
+        <v>97.887</v>
       </c>
       <c r="J74" t="n">
-        <v>6.64</v>
+        <v>1711.363</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>French Polynesia</t>
+          <t>Guinea-Bissau</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>79254</v>
+        <v>9614</v>
       </c>
       <c r="C75" t="n">
-        <v>650</v>
+        <v>177</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>8929</v>
       </c>
       <c r="E75" t="n">
-        <v>78604</v>
+        <v>508</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>145231</v>
       </c>
       <c r="G75" t="n">
-        <v>284164</v>
+        <v>2063367</v>
       </c>
       <c r="H75" t="n">
-        <v>0.8200000000000001</v>
+        <v>1.841</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>92.875</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>1510.62</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Guyana</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>49051</v>
+        <v>74137</v>
       </c>
       <c r="C76" t="n">
-        <v>307</v>
+        <v>1300</v>
       </c>
       <c r="D76" t="n">
-        <v>48674</v>
+        <v>72013</v>
       </c>
       <c r="E76" t="n">
-        <v>70</v>
+        <v>824</v>
       </c>
       <c r="F76" t="n">
-        <v>1621909</v>
+        <v>733218</v>
       </c>
       <c r="G76" t="n">
-        <v>2331533</v>
+        <v>794045</v>
       </c>
       <c r="H76" t="n">
-        <v>0.63</v>
+        <v>1.754</v>
       </c>
       <c r="I76" t="n">
-        <v>99.22999999999999</v>
+        <v>97.13500000000001</v>
       </c>
       <c r="J76" t="n">
-        <v>33.07</v>
+        <v>989.004</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Gambia</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>12626</v>
+        <v>34667</v>
       </c>
       <c r="C77" t="n">
-        <v>372</v>
+        <v>860</v>
       </c>
       <c r="D77" t="n">
-        <v>12189</v>
+        <v>33734</v>
       </c>
       <c r="E77" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F77" t="n">
-        <v>155686</v>
+        <v>132422</v>
       </c>
       <c r="G77" t="n">
-        <v>2558482</v>
+        <v>11680283</v>
       </c>
       <c r="H77" t="n">
-        <v>2.95</v>
+        <v>2.481</v>
       </c>
       <c r="I77" t="n">
-        <v>96.54000000000001</v>
+        <v>97.309</v>
       </c>
       <c r="J77" t="n">
-        <v>12.33</v>
+        <v>381.983</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Holy See (Vatican City State)</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1861665</v>
+        <v>29</v>
       </c>
       <c r="C78" t="n">
-        <v>17132</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E78" t="n">
-        <v>1844533</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>16920079</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>3968738</v>
+        <v>799</v>
       </c>
       <c r="H78" t="n">
-        <v>0.9199999999999999</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J78" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>38828995</v>
+        <v>474590</v>
       </c>
       <c r="C79" t="n">
-        <v>183027</v>
+        <v>11165</v>
       </c>
       <c r="D79" t="n">
-        <v>38240600</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>405368</v>
+        <v>463425</v>
       </c>
       <c r="F79" t="n">
-        <v>122332384</v>
+        <v>1660662</v>
       </c>
       <c r="G79" t="n">
-        <v>83883596</v>
+        <v>10221247</v>
       </c>
       <c r="H79" t="n">
-        <v>0.47</v>
+        <v>2.353</v>
       </c>
       <c r="I79" t="n">
-        <v>98.48</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>3.15</v>
+        <v>349.915</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>171889</v>
+        <v>2937609</v>
       </c>
       <c r="C80" t="n">
-        <v>1462</v>
+        <v>14924</v>
       </c>
       <c r="D80" t="n">
-        <v>170425</v>
+        <v>2916005</v>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>6680</v>
       </c>
       <c r="F80" t="n">
-        <v>2541625</v>
+        <v>76127725</v>
       </c>
       <c r="G80" t="n">
-        <v>32395450</v>
+        <v>7604299</v>
       </c>
       <c r="H80" t="n">
-        <v>0.8500000000000001</v>
+        <v>0.508</v>
       </c>
       <c r="I80" t="n">
-        <v>99.15000000000001</v>
+        <v>99.265</v>
       </c>
       <c r="J80" t="n">
-        <v>14.79</v>
+        <v>2591.486</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Gibraltar</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>20550</v>
+        <v>2230232</v>
       </c>
       <c r="C81" t="n">
-        <v>113</v>
+        <v>49048</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>2152155</v>
       </c>
       <c r="E81" t="n">
-        <v>20437</v>
+        <v>29029</v>
       </c>
       <c r="F81" t="n">
-        <v>534283</v>
+        <v>11394556</v>
       </c>
       <c r="G81" t="n">
-        <v>33704</v>
+        <v>9606259</v>
       </c>
       <c r="H81" t="n">
-        <v>0.5499999999999999</v>
+        <v>2.199</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>96.499</v>
       </c>
       <c r="J81" t="n">
-        <v>26</v>
+        <v>510.913</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6101379</v>
+        <v>209906</v>
       </c>
       <c r="C82" t="n">
-        <v>37869</v>
+        <v>229</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>6063510</v>
+        <v>209677</v>
       </c>
       <c r="F82" t="n">
-        <v>102228365</v>
+        <v>1996384</v>
       </c>
       <c r="G82" t="n">
-        <v>10316637</v>
+        <v>345393</v>
       </c>
       <c r="H82" t="n">
-        <v>0.62</v>
+        <v>0.109</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>16.75</v>
+        <v>951.085</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Greenland</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>11971</v>
+        <v>45035393</v>
       </c>
       <c r="C83" t="n">
-        <v>21</v>
+        <v>533570</v>
       </c>
       <c r="D83" t="n">
-        <v>2761</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>9189</v>
+        <v>44501823</v>
       </c>
       <c r="F83" t="n">
-        <v>164926</v>
+        <v>935879495</v>
       </c>
       <c r="G83" t="n">
-        <v>56973</v>
+        <v>1406631776</v>
       </c>
       <c r="H83" t="n">
-        <v>0.18</v>
+        <v>1.185</v>
       </c>
       <c r="I83" t="n">
-        <v>23.06</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>13.78</v>
+        <v>2078.098</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Grenada</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>19693</v>
+        <v>6829221</v>
       </c>
       <c r="C84" t="n">
-        <v>238</v>
+        <v>162063</v>
       </c>
       <c r="D84" t="n">
-        <v>19358</v>
+        <v>6647104</v>
       </c>
       <c r="E84" t="n">
-        <v>97</v>
+        <v>20054</v>
       </c>
       <c r="F84" t="n">
-        <v>182981</v>
+        <v>114158919</v>
       </c>
       <c r="G84" t="n">
-        <v>113475</v>
+        <v>279134505</v>
       </c>
       <c r="H84" t="n">
-        <v>1.21</v>
+        <v>2.373</v>
       </c>
       <c r="I84" t="n">
-        <v>98.3</v>
+        <v>97.333</v>
       </c>
       <c r="J84" t="n">
-        <v>9.289999999999999</v>
+        <v>1671.624</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Guadeloupe</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>203235</v>
+        <v>7627186</v>
       </c>
       <c r="C85" t="n">
-        <v>1021</v>
+        <v>146811</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>202214</v>
+        <v>7480375</v>
       </c>
       <c r="F85" t="n">
-        <v>938039</v>
+        <v>57320267</v>
       </c>
       <c r="G85" t="n">
-        <v>399794</v>
+        <v>86022837</v>
       </c>
       <c r="H85" t="n">
-        <v>0.5</v>
+        <v>1.925</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>4.62</v>
+        <v>751.526</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1291293</v>
+        <v>2465545</v>
       </c>
       <c r="C86" t="n">
-        <v>20289</v>
+        <v>25375</v>
       </c>
       <c r="D86" t="n">
-        <v>1269891</v>
+        <v>2439497</v>
       </c>
       <c r="E86" t="n">
-        <v>1113</v>
+        <v>673</v>
       </c>
       <c r="F86" t="n">
-        <v>7593848</v>
+        <v>19544451</v>
       </c>
       <c r="G86" t="n">
-        <v>18584039</v>
+        <v>42164965</v>
       </c>
       <c r="H86" t="n">
-        <v>1.57</v>
+        <v>1.029</v>
       </c>
       <c r="I86" t="n">
-        <v>98.34</v>
+        <v>98.944</v>
       </c>
       <c r="J86" t="n">
-        <v>5.88</v>
+        <v>792.703</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>38572</v>
+        <v>1734582</v>
       </c>
       <c r="C87" t="n">
-        <v>468</v>
+        <v>9491</v>
       </c>
       <c r="D87" t="n">
-        <v>37757</v>
+        <v>1724921</v>
       </c>
       <c r="E87" t="n">
-        <v>347</v>
+        <v>170</v>
       </c>
       <c r="F87" t="n">
-        <v>660107</v>
+        <v>13083449</v>
       </c>
       <c r="G87" t="n">
-        <v>13865691</v>
+        <v>5020199</v>
       </c>
       <c r="H87" t="n">
-        <v>1.21</v>
+        <v>0.547</v>
       </c>
       <c r="I87" t="n">
-        <v>97.89</v>
+        <v>99.443</v>
       </c>
       <c r="J87" t="n">
-        <v>17.11</v>
+        <v>754.271</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>9614</v>
+        <v>4841772</v>
       </c>
       <c r="C88" t="n">
-        <v>177</v>
+        <v>12707</v>
       </c>
       <c r="D88" t="n">
-        <v>8929</v>
+        <v>4798473</v>
       </c>
       <c r="E88" t="n">
-        <v>508</v>
+        <v>30592</v>
       </c>
       <c r="F88" t="n">
-        <v>145231</v>
+        <v>41373364</v>
       </c>
       <c r="G88" t="n">
-        <v>2063367</v>
+        <v>9326000</v>
       </c>
       <c r="H88" t="n">
-        <v>1.84</v>
+        <v>0.262</v>
       </c>
       <c r="I88" t="n">
-        <v>92.86999999999999</v>
+        <v>99.10599999999999</v>
       </c>
       <c r="J88" t="n">
-        <v>15.11</v>
+        <v>854.509</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>74137</v>
+        <v>26723249</v>
       </c>
       <c r="C89" t="n">
-        <v>1300</v>
+        <v>196487</v>
       </c>
       <c r="D89" t="n">
-        <v>72013</v>
+        <v>26361218</v>
       </c>
       <c r="E89" t="n">
-        <v>824</v>
+        <v>165544</v>
       </c>
       <c r="F89" t="n">
-        <v>733218</v>
+        <v>281126449</v>
       </c>
       <c r="G89" t="n">
-        <v>794045</v>
+        <v>60262770</v>
       </c>
       <c r="H89" t="n">
-        <v>1.75</v>
+        <v>0.735</v>
       </c>
       <c r="I89" t="n">
-        <v>97.14</v>
+        <v>98.645</v>
       </c>
       <c r="J89" t="n">
-        <v>9.890000000000001</v>
+        <v>1051.992</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>34667</v>
+        <v>156869</v>
       </c>
       <c r="C90" t="n">
-        <v>860</v>
+        <v>3756</v>
       </c>
       <c r="D90" t="n">
-        <v>33734</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>73</v>
+        <v>153113</v>
       </c>
       <c r="F90" t="n">
-        <v>132422</v>
+        <v>1183986</v>
       </c>
       <c r="G90" t="n">
-        <v>11680283</v>
+        <v>2985094</v>
       </c>
       <c r="H90" t="n">
-        <v>2.48</v>
+        <v>2.394</v>
       </c>
       <c r="I90" t="n">
-        <v>97.31</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>3.82</v>
+        <v>754.761</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Holy See (Vatican City State)</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>29</v>
+        <v>33803572</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>74694</v>
       </c>
       <c r="D91" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>33728878</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>100414883</v>
       </c>
       <c r="G91" t="n">
-        <v>799</v>
+        <v>125584838</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>0.221</v>
       </c>
       <c r="I91" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>297.054</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>474590</v>
+        <v>1746997</v>
       </c>
       <c r="C92" t="n">
-        <v>11165</v>
+        <v>14122</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>1731007</v>
       </c>
       <c r="E92" t="n">
-        <v>463425</v>
+        <v>1868</v>
       </c>
       <c r="F92" t="n">
-        <v>1660662</v>
+        <v>17201885</v>
       </c>
       <c r="G92" t="n">
-        <v>10221247</v>
+        <v>10300869</v>
       </c>
       <c r="H92" t="n">
-        <v>2.35</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>99.08499999999999</v>
       </c>
       <c r="J92" t="n">
-        <v>3.5</v>
+        <v>984.655</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2937609</v>
+        <v>1411831</v>
       </c>
       <c r="C93" t="n">
-        <v>14924</v>
+        <v>13848</v>
       </c>
       <c r="D93" t="n">
-        <v>2916005</v>
+        <v>1383020</v>
       </c>
       <c r="E93" t="n">
-        <v>6680</v>
+        <v>14963</v>
       </c>
       <c r="F93" t="n">
-        <v>76127725</v>
+        <v>11575012</v>
       </c>
       <c r="G93" t="n">
-        <v>7604299</v>
+        <v>19205043</v>
       </c>
       <c r="H93" t="n">
-        <v>0.51</v>
+        <v>0.981</v>
       </c>
       <c r="I93" t="n">
-        <v>99.26000000000001</v>
+        <v>97.959</v>
       </c>
       <c r="J93" t="n">
-        <v>25.91</v>
+        <v>819.8579999999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2230232</v>
+        <v>344130</v>
       </c>
       <c r="C94" t="n">
-        <v>49048</v>
+        <v>5689</v>
       </c>
       <c r="D94" t="n">
-        <v>2152155</v>
+        <v>337309</v>
       </c>
       <c r="E94" t="n">
-        <v>29029</v>
+        <v>1132</v>
       </c>
       <c r="F94" t="n">
-        <v>11394556</v>
+        <v>3967062</v>
       </c>
       <c r="G94" t="n">
-        <v>9606259</v>
+        <v>56215221</v>
       </c>
       <c r="H94" t="n">
-        <v>2.2</v>
+        <v>1.653</v>
       </c>
       <c r="I94" t="n">
-        <v>96.5</v>
+        <v>98.018</v>
       </c>
       <c r="J94" t="n">
-        <v>5.11</v>
+        <v>1152.78</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Kiribati</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>209906</v>
+        <v>5085</v>
       </c>
       <c r="C95" t="n">
-        <v>229</v>
+        <v>24</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>2703</v>
       </c>
       <c r="E95" t="n">
-        <v>209677</v>
+        <v>2358</v>
       </c>
       <c r="F95" t="n">
-        <v>1996384</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>345393</v>
+        <v>123419</v>
       </c>
       <c r="H95" t="n">
-        <v>0.11</v>
+        <v>0.472</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>53.156</v>
       </c>
       <c r="J95" t="n">
-        <v>9.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>45035393</v>
+        <v>667158</v>
       </c>
       <c r="C96" t="n">
-        <v>533570</v>
+        <v>2570</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>44501823</v>
+        <v>664588</v>
       </c>
       <c r="F96" t="n">
-        <v>935879495</v>
+        <v>8455743</v>
       </c>
       <c r="G96" t="n">
-        <v>1406631776</v>
+        <v>4380326</v>
       </c>
       <c r="H96" t="n">
-        <v>1.18</v>
+        <v>0.385</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>20.78</v>
+        <v>1267.427</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>6829221</v>
+        <v>206897</v>
       </c>
       <c r="C97" t="n">
-        <v>162063</v>
+        <v>2991</v>
       </c>
       <c r="D97" t="n">
-        <v>6647104</v>
+        <v>196406</v>
       </c>
       <c r="E97" t="n">
-        <v>20054</v>
+        <v>7500</v>
       </c>
       <c r="F97" t="n">
-        <v>114158919</v>
+        <v>1907195</v>
       </c>
       <c r="G97" t="n">
-        <v>279134505</v>
+        <v>6728271</v>
       </c>
       <c r="H97" t="n">
-        <v>2.37</v>
+        <v>1.446</v>
       </c>
       <c r="I97" t="n">
-        <v>97.33000000000001</v>
+        <v>94.929</v>
       </c>
       <c r="J97" t="n">
-        <v>16.72</v>
+        <v>921.809</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>7627186</v>
+        <v>218970</v>
       </c>
       <c r="C98" t="n">
-        <v>146811</v>
+        <v>758</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>7480375</v>
+        <v>218212</v>
       </c>
       <c r="F98" t="n">
-        <v>57320267</v>
+        <v>1233207</v>
       </c>
       <c r="G98" t="n">
-        <v>86022837</v>
+        <v>7481023</v>
       </c>
       <c r="H98" t="n">
-        <v>1.92</v>
+        <v>0.346</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>7.52</v>
+        <v>563.1849999999999</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2465545</v>
+        <v>982505</v>
       </c>
       <c r="C99" t="n">
-        <v>25375</v>
+        <v>6715</v>
       </c>
       <c r="D99" t="n">
-        <v>2439497</v>
+        <v>971406</v>
       </c>
       <c r="E99" t="n">
-        <v>673</v>
+        <v>4384</v>
       </c>
       <c r="F99" t="n">
-        <v>19544451</v>
+        <v>7885792</v>
       </c>
       <c r="G99" t="n">
-        <v>42164965</v>
+        <v>1848837</v>
       </c>
       <c r="H99" t="n">
-        <v>1.03</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="I99" t="n">
-        <v>98.94</v>
+        <v>98.87</v>
       </c>
       <c r="J99" t="n">
-        <v>7.93</v>
+        <v>802.621</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1734582</v>
+        <v>1243838</v>
       </c>
       <c r="C100" t="n">
-        <v>9491</v>
+        <v>10952</v>
       </c>
       <c r="D100" t="n">
-        <v>1724921</v>
+        <v>1087587</v>
       </c>
       <c r="E100" t="n">
-        <v>170</v>
+        <v>145299</v>
       </c>
       <c r="F100" t="n">
-        <v>13083449</v>
+        <v>4795578</v>
       </c>
       <c r="G100" t="n">
-        <v>5020199</v>
+        <v>6684849</v>
       </c>
       <c r="H100" t="n">
-        <v>0.5499999999999999</v>
+        <v>0.881</v>
       </c>
       <c r="I100" t="n">
-        <v>99.44</v>
+        <v>87.438</v>
       </c>
       <c r="J100" t="n">
-        <v>7.54</v>
+        <v>385.547</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Isle of Man</t>
+          <t>Lesotho</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>38008</v>
+        <v>36138</v>
       </c>
       <c r="C101" t="n">
-        <v>116</v>
+        <v>723</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>25980</v>
       </c>
       <c r="E101" t="n">
-        <v>37892</v>
+        <v>9435</v>
       </c>
       <c r="F101" t="n">
-        <v>150753</v>
+        <v>431221</v>
       </c>
       <c r="G101" t="n">
-        <v>85732</v>
+        <v>2175699</v>
       </c>
       <c r="H101" t="n">
-        <v>0.31</v>
+        <v>2.001</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>71.89100000000001</v>
       </c>
       <c r="J101" t="n">
-        <v>3.97</v>
+        <v>1193.262</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Liberia</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>4841772</v>
+        <v>8090</v>
       </c>
       <c r="C102" t="n">
-        <v>12707</v>
+        <v>295</v>
       </c>
       <c r="D102" t="n">
-        <v>4798473</v>
+        <v>7783</v>
       </c>
       <c r="E102" t="n">
-        <v>30592</v>
+        <v>12</v>
       </c>
       <c r="F102" t="n">
-        <v>41373364</v>
+        <v>139824</v>
       </c>
       <c r="G102" t="n">
-        <v>9326000</v>
+        <v>5305117</v>
       </c>
       <c r="H102" t="n">
-        <v>0.26</v>
+        <v>3.646</v>
       </c>
       <c r="I102" t="n">
-        <v>99.11</v>
+        <v>96.205</v>
       </c>
       <c r="J102" t="n">
-        <v>8.550000000000001</v>
+        <v>1728.356</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Liechtenstein</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>26723249</v>
+        <v>21574</v>
       </c>
       <c r="C103" t="n">
-        <v>196487</v>
+        <v>94</v>
       </c>
       <c r="D103" t="n">
-        <v>26361218</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>165544</v>
+        <v>21480</v>
       </c>
       <c r="F103" t="n">
-        <v>281126449</v>
+        <v>112457</v>
       </c>
       <c r="G103" t="n">
-        <v>60262770</v>
+        <v>38387</v>
       </c>
       <c r="H103" t="n">
-        <v>0.74</v>
+        <v>0.436</v>
       </c>
       <c r="I103" t="n">
-        <v>98.65000000000001</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>10.52</v>
+        <v>521.2619999999999</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>156869</v>
+        <v>1397806</v>
       </c>
       <c r="C104" t="n">
-        <v>3756</v>
+        <v>9897</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>1387478</v>
       </c>
       <c r="E104" t="n">
-        <v>153113</v>
+        <v>431</v>
       </c>
       <c r="F104" t="n">
-        <v>1183986</v>
+        <v>10540357</v>
       </c>
       <c r="G104" t="n">
-        <v>2985094</v>
+        <v>2661708</v>
       </c>
       <c r="H104" t="n">
-        <v>2.39</v>
+        <v>0.708</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>99.261</v>
       </c>
       <c r="J104" t="n">
-        <v>7.55</v>
+        <v>754.064</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>33803572</v>
+        <v>391232</v>
       </c>
       <c r="C105" t="n">
-        <v>74694</v>
+        <v>1232</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>33728878</v>
+        <v>390000</v>
       </c>
       <c r="F105" t="n">
-        <v>100414883</v>
+        <v>4587145</v>
       </c>
       <c r="G105" t="n">
-        <v>125584838</v>
+        <v>642371</v>
       </c>
       <c r="H105" t="n">
-        <v>0.22</v>
+        <v>0.315</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>2.97</v>
+        <v>1172.487</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Macedonia</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1746997</v>
+        <v>350567</v>
       </c>
       <c r="C106" t="n">
-        <v>14122</v>
+        <v>9976</v>
       </c>
       <c r="D106" t="n">
-        <v>1731007</v>
+        <v>337068</v>
       </c>
       <c r="E106" t="n">
-        <v>1868</v>
+        <v>3523</v>
       </c>
       <c r="F106" t="n">
-        <v>17201885</v>
+        <v>2226216</v>
       </c>
       <c r="G106" t="n">
-        <v>10300869</v>
+        <v>2081304</v>
       </c>
       <c r="H106" t="n">
-        <v>0.8099999999999999</v>
+        <v>2.846</v>
       </c>
       <c r="I106" t="n">
-        <v>99.08</v>
+        <v>96.149</v>
       </c>
       <c r="J106" t="n">
-        <v>9.85</v>
+        <v>635.033</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1411831</v>
+        <v>68486</v>
       </c>
       <c r="C107" t="n">
-        <v>13848</v>
+        <v>1426</v>
       </c>
       <c r="D107" t="n">
-        <v>1383020</v>
+        <v>66862</v>
       </c>
       <c r="E107" t="n">
-        <v>14963</v>
+        <v>198</v>
       </c>
       <c r="F107" t="n">
-        <v>11575012</v>
+        <v>531329</v>
       </c>
       <c r="G107" t="n">
-        <v>19205043</v>
+        <v>29178077</v>
       </c>
       <c r="H107" t="n">
-        <v>0.98</v>
+        <v>2.082</v>
       </c>
       <c r="I107" t="n">
-        <v>97.96000000000001</v>
+        <v>97.629</v>
       </c>
       <c r="J107" t="n">
-        <v>8.199999999999999</v>
+        <v>775.821</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>344130</v>
+        <v>89535</v>
       </c>
       <c r="C108" t="n">
-        <v>5689</v>
+        <v>2686</v>
       </c>
       <c r="D108" t="n">
-        <v>337309</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>1132</v>
+        <v>86849</v>
       </c>
       <c r="F108" t="n">
-        <v>3967062</v>
+        <v>624784</v>
       </c>
       <c r="G108" t="n">
-        <v>56215221</v>
+        <v>20180839</v>
       </c>
       <c r="H108" t="n">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="I108" t="n">
-        <v>98.02</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>11.53</v>
+        <v>697.8099999999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Kiribati</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>5085</v>
+        <v>5278406</v>
       </c>
       <c r="C109" t="n">
-        <v>24</v>
+        <v>37348</v>
       </c>
       <c r="D109" t="n">
-        <v>2703</v>
+        <v>5233268</v>
       </c>
       <c r="E109" t="n">
-        <v>2358</v>
+        <v>7790</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>68580916</v>
       </c>
       <c r="G109" t="n">
-        <v>123419</v>
+        <v>33181072</v>
       </c>
       <c r="H109" t="n">
-        <v>0.47</v>
+        <v>0.708</v>
       </c>
       <c r="I109" t="n">
-        <v>53.16</v>
+        <v>99.145</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>1299.273</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Maldives</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>667158</v>
+        <v>186694</v>
       </c>
       <c r="C110" t="n">
-        <v>2570</v>
+        <v>316</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>163687</v>
       </c>
       <c r="E110" t="n">
-        <v>664588</v>
+        <v>22691</v>
       </c>
       <c r="F110" t="n">
-        <v>8455743</v>
+        <v>2213831</v>
       </c>
       <c r="G110" t="n">
-        <v>4380326</v>
+        <v>540985</v>
       </c>
       <c r="H110" t="n">
-        <v>0.39</v>
+        <v>0.169</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>87.67700000000001</v>
       </c>
       <c r="J110" t="n">
-        <v>12.67</v>
+        <v>1185.807</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>206897</v>
+        <v>33164</v>
       </c>
       <c r="C111" t="n">
-        <v>2991</v>
+        <v>743</v>
       </c>
       <c r="D111" t="n">
-        <v>196406</v>
+        <v>32332</v>
       </c>
       <c r="E111" t="n">
-        <v>7500</v>
+        <v>89</v>
       </c>
       <c r="F111" t="n">
-        <v>1907195</v>
+        <v>804909</v>
       </c>
       <c r="G111" t="n">
-        <v>6728271</v>
+        <v>21473764</v>
       </c>
       <c r="H111" t="n">
-        <v>1.45</v>
+        <v>2.24</v>
       </c>
       <c r="I111" t="n">
-        <v>94.93000000000001</v>
+        <v>97.491</v>
       </c>
       <c r="J111" t="n">
-        <v>9.220000000000001</v>
+        <v>2427.056</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Lao People's Democratic Republic</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>218970</v>
+        <v>121420</v>
       </c>
       <c r="C112" t="n">
-        <v>758</v>
+        <v>885</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>120149</v>
       </c>
       <c r="E112" t="n">
-        <v>218212</v>
+        <v>386</v>
       </c>
       <c r="F112" t="n">
-        <v>1233207</v>
+        <v>2170600</v>
       </c>
       <c r="G112" t="n">
-        <v>7481023</v>
+        <v>444033</v>
       </c>
       <c r="H112" t="n">
-        <v>0.35</v>
+        <v>0.729</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>98.953</v>
       </c>
       <c r="J112" t="n">
-        <v>5.63</v>
+        <v>1787.679</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Marshall Islands</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>982505</v>
+        <v>16138</v>
       </c>
       <c r="C113" t="n">
-        <v>6715</v>
+        <v>17</v>
       </c>
       <c r="D113" t="n">
-        <v>971406</v>
+        <v>16121</v>
       </c>
       <c r="E113" t="n">
-        <v>4384</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>7885792</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>1848837</v>
+        <v>60057</v>
       </c>
       <c r="H113" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.105</v>
       </c>
       <c r="I113" t="n">
-        <v>98.87</v>
+        <v>99.895</v>
       </c>
       <c r="J113" t="n">
-        <v>8.029999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Mauritania</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1243838</v>
+        <v>63848</v>
       </c>
       <c r="C114" t="n">
-        <v>10952</v>
+        <v>997</v>
       </c>
       <c r="D114" t="n">
-        <v>1087587</v>
+        <v>62471</v>
       </c>
       <c r="E114" t="n">
-        <v>145299</v>
+        <v>380</v>
       </c>
       <c r="F114" t="n">
-        <v>4795578</v>
+        <v>1009957</v>
       </c>
       <c r="G114" t="n">
-        <v>6684849</v>
+        <v>4901981</v>
       </c>
       <c r="H114" t="n">
-        <v>0.88</v>
+        <v>1.562</v>
       </c>
       <c r="I114" t="n">
-        <v>87.44</v>
+        <v>97.843</v>
       </c>
       <c r="J114" t="n">
-        <v>3.86</v>
+        <v>1581.815</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Lesotho</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>36138</v>
+        <v>43025</v>
       </c>
       <c r="C115" t="n">
-        <v>723</v>
+        <v>1051</v>
       </c>
       <c r="D115" t="n">
-        <v>25980</v>
+        <v>41278</v>
       </c>
       <c r="E115" t="n">
-        <v>9435</v>
+        <v>696</v>
       </c>
       <c r="F115" t="n">
-        <v>431221</v>
+        <v>358675</v>
       </c>
       <c r="G115" t="n">
-        <v>2175699</v>
+        <v>1274727</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>2.443</v>
       </c>
       <c r="I115" t="n">
-        <v>71.89</v>
+        <v>95.94</v>
       </c>
       <c r="J115" t="n">
-        <v>11.93</v>
+        <v>833.643</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>8090</v>
+        <v>42027</v>
       </c>
       <c r="C116" t="n">
-        <v>295</v>
+        <v>188</v>
       </c>
       <c r="D116" t="n">
-        <v>7783</v>
+        <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>12</v>
+        <v>41839</v>
       </c>
       <c r="F116" t="n">
-        <v>139824</v>
+        <v>176919</v>
       </c>
       <c r="G116" t="n">
-        <v>5305117</v>
+        <v>286259</v>
       </c>
       <c r="H116" t="n">
-        <v>3.65</v>
+        <v>0.447</v>
       </c>
       <c r="I116" t="n">
-        <v>96.20999999999999</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>17.28</v>
+        <v>420.965</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Libyan Arab Jamahiriya</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>507274</v>
+        <v>7702809</v>
       </c>
       <c r="C117" t="n">
-        <v>6437</v>
+        <v>334958</v>
       </c>
       <c r="D117" t="n">
-        <v>500835</v>
+        <v>6899865</v>
       </c>
       <c r="E117" t="n">
-        <v>2</v>
+        <v>467986</v>
       </c>
       <c r="F117" t="n">
-        <v>2483848</v>
+        <v>20013810</v>
       </c>
       <c r="G117" t="n">
-        <v>7040745</v>
+        <v>131562772</v>
       </c>
       <c r="H117" t="n">
-        <v>1.27</v>
+        <v>4.349</v>
       </c>
       <c r="I117" t="n">
-        <v>98.72999999999999</v>
+        <v>89.57599999999999</v>
       </c>
       <c r="J117" t="n">
-        <v>4.9</v>
+        <v>259.825</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Micronesia</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>21574</v>
+        <v>26547</v>
       </c>
       <c r="C118" t="n">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>21480</v>
+        <v>26482</v>
       </c>
       <c r="F118" t="n">
-        <v>112457</v>
+        <v>82430</v>
       </c>
       <c r="G118" t="n">
-        <v>38387</v>
+        <v>117489</v>
       </c>
       <c r="H118" t="n">
-        <v>0.44</v>
+        <v>0.245</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>5.21</v>
+        <v>310.506</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Moldova</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1397806</v>
+        <v>635145</v>
       </c>
       <c r="C119" t="n">
-        <v>9897</v>
+        <v>12218</v>
       </c>
       <c r="D119" t="n">
-        <v>1387478</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>431</v>
+        <v>622927</v>
       </c>
       <c r="F119" t="n">
-        <v>10540357</v>
+        <v>3216305</v>
       </c>
       <c r="G119" t="n">
-        <v>2661708</v>
+        <v>4013171</v>
       </c>
       <c r="H119" t="n">
-        <v>0.7100000000000001</v>
+        <v>1.924</v>
       </c>
       <c r="I119" t="n">
-        <v>99.26000000000001</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>7.54</v>
+        <v>506.389</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>391232</v>
+        <v>17181</v>
       </c>
       <c r="C120" t="n">
-        <v>1232</v>
+        <v>67</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>390000</v>
+        <v>17114</v>
       </c>
       <c r="F120" t="n">
-        <v>4587145</v>
+        <v>78646</v>
       </c>
       <c r="G120" t="n">
-        <v>642371</v>
+        <v>39783</v>
       </c>
       <c r="H120" t="n">
-        <v>0.31</v>
+        <v>0.39</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>11.72</v>
+        <v>457.75</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>MS Zaandam</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>9</v>
+        <v>1011496</v>
       </c>
       <c r="C121" t="n">
-        <v>2</v>
+        <v>2284</v>
       </c>
       <c r="D121" t="n">
-        <v>7</v>
+        <v>1009212</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>4030048</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>3378078</v>
       </c>
       <c r="H121" t="n">
-        <v>22.22</v>
+        <v>0.226</v>
       </c>
       <c r="I121" t="n">
-        <v>77.78</v>
+        <v>99.774</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>398.425</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Macao</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>27673</v>
+        <v>296542</v>
       </c>
       <c r="C122" t="n">
-        <v>123</v>
+        <v>2846</v>
       </c>
       <c r="D122" t="n">
-        <v>3487</v>
+        <v>291794</v>
       </c>
       <c r="E122" t="n">
-        <v>24063</v>
+        <v>1902</v>
       </c>
       <c r="F122" t="n">
-        <v>7850</v>
+        <v>2769281</v>
       </c>
       <c r="G122" t="n">
-        <v>667490</v>
+        <v>627950</v>
       </c>
       <c r="H122" t="n">
-        <v>0.44</v>
+        <v>0.96</v>
       </c>
       <c r="I122" t="n">
-        <v>12.6</v>
+        <v>98.399</v>
       </c>
       <c r="J122" t="n">
-        <v>0.28</v>
+        <v>933.8579999999999</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Macedonia</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>350567</v>
+        <v>1278992</v>
       </c>
       <c r="C123" t="n">
-        <v>9976</v>
+        <v>16303</v>
       </c>
       <c r="D123" t="n">
-        <v>337068</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>3523</v>
+        <v>1262689</v>
       </c>
       <c r="F123" t="n">
-        <v>2226216</v>
+        <v>13001033</v>
       </c>
       <c r="G123" t="n">
-        <v>2081304</v>
+        <v>37772756</v>
       </c>
       <c r="H123" t="n">
-        <v>2.85</v>
+        <v>1.275</v>
       </c>
       <c r="I123" t="n">
-        <v>96.15000000000001</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>6.35</v>
+        <v>1016.506</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>68486</v>
+        <v>233731</v>
       </c>
       <c r="C124" t="n">
-        <v>1426</v>
+        <v>2250</v>
       </c>
       <c r="D124" t="n">
-        <v>66862</v>
+        <v>228805</v>
       </c>
       <c r="E124" t="n">
-        <v>198</v>
+        <v>2676</v>
       </c>
       <c r="F124" t="n">
-        <v>531329</v>
+        <v>1371127</v>
       </c>
       <c r="G124" t="n">
-        <v>29178077</v>
+        <v>33089461</v>
       </c>
       <c r="H124" t="n">
-        <v>2.08</v>
+        <v>0.963</v>
       </c>
       <c r="I124" t="n">
-        <v>97.63</v>
+        <v>97.892</v>
       </c>
       <c r="J124" t="n">
-        <v>7.76</v>
+        <v>586.626</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Myanmar</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>89535</v>
+        <v>641873</v>
       </c>
       <c r="C125" t="n">
-        <v>2686</v>
+        <v>19495</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>620159</v>
       </c>
       <c r="E125" t="n">
-        <v>86849</v>
+        <v>2219</v>
       </c>
       <c r="F125" t="n">
-        <v>624784</v>
+        <v>11711514</v>
       </c>
       <c r="G125" t="n">
-        <v>20180839</v>
+        <v>55227143</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>3.037</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>96.617</v>
       </c>
       <c r="J125" t="n">
-        <v>6.98</v>
+        <v>1824.584</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>N. Korea</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>5278406</v>
+        <v>4772813</v>
       </c>
       <c r="C126" t="n">
-        <v>37348</v>
+        <v>74</v>
       </c>
       <c r="D126" t="n">
-        <v>5233268</v>
+        <v>4772739</v>
       </c>
       <c r="E126" t="n">
-        <v>7790</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>68580916</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>33181072</v>
+        <v>25990679</v>
       </c>
       <c r="H126" t="n">
-        <v>0.7100000000000001</v>
+        <v>0.002</v>
       </c>
       <c r="I126" t="n">
-        <v>99.14</v>
+        <v>99.998</v>
       </c>
       <c r="J126" t="n">
-        <v>12.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Maldives</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>186694</v>
+        <v>172389</v>
       </c>
       <c r="C127" t="n">
-        <v>316</v>
+        <v>4106</v>
       </c>
       <c r="D127" t="n">
-        <v>163687</v>
+        <v>167099</v>
       </c>
       <c r="E127" t="n">
-        <v>22691</v>
+        <v>1184</v>
       </c>
       <c r="F127" t="n">
-        <v>2213831</v>
+        <v>1062663</v>
       </c>
       <c r="G127" t="n">
-        <v>540985</v>
+        <v>2633874</v>
       </c>
       <c r="H127" t="n">
-        <v>0.17</v>
+        <v>2.382</v>
       </c>
       <c r="I127" t="n">
-        <v>87.68000000000001</v>
+        <v>96.931</v>
       </c>
       <c r="J127" t="n">
-        <v>11.86</v>
+        <v>616.433</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Nauru</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>33164</v>
+        <v>5393</v>
       </c>
       <c r="C128" t="n">
-        <v>743</v>
+        <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>32332</v>
+        <v>5347</v>
       </c>
       <c r="E128" t="n">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="F128" t="n">
-        <v>804909</v>
+        <v>20509</v>
       </c>
       <c r="G128" t="n">
-        <v>21473764</v>
+        <v>10903</v>
       </c>
       <c r="H128" t="n">
-        <v>2.24</v>
+        <v>0.019</v>
       </c>
       <c r="I128" t="n">
-        <v>97.48999999999999</v>
+        <v>99.14700000000001</v>
       </c>
       <c r="J128" t="n">
-        <v>24.27</v>
+        <v>380.289</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>121420</v>
+        <v>1003450</v>
       </c>
       <c r="C129" t="n">
-        <v>885</v>
+        <v>12031</v>
       </c>
       <c r="D129" t="n">
-        <v>120149</v>
+        <v>991322</v>
       </c>
       <c r="E129" t="n">
-        <v>386</v>
+        <v>97</v>
       </c>
       <c r="F129" t="n">
-        <v>2170600</v>
+        <v>6047766</v>
       </c>
       <c r="G129" t="n">
-        <v>444033</v>
+        <v>30225582</v>
       </c>
       <c r="H129" t="n">
-        <v>0.73</v>
+        <v>1.199</v>
       </c>
       <c r="I129" t="n">
-        <v>98.95</v>
+        <v>98.791</v>
       </c>
       <c r="J129" t="n">
-        <v>17.88</v>
+        <v>602.697</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Marshall Islands</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>16138</v>
+        <v>8635786</v>
       </c>
       <c r="C130" t="n">
-        <v>17</v>
+        <v>22992</v>
       </c>
       <c r="D130" t="n">
-        <v>16121</v>
+        <v>8612599</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>25984435</v>
       </c>
       <c r="G130" t="n">
-        <v>60057</v>
+        <v>17211447</v>
       </c>
       <c r="H130" t="n">
-        <v>0.11</v>
+        <v>0.266</v>
       </c>
       <c r="I130" t="n">
-        <v>99.89</v>
+        <v>99.732</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
+        <v>300.893</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>230354</v>
+        <v>2621111</v>
       </c>
       <c r="C131" t="n">
-        <v>1102</v>
+        <v>5697</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>2613791</v>
       </c>
       <c r="E131" t="n">
-        <v>229252</v>
+        <v>1623</v>
       </c>
       <c r="F131" t="n">
-        <v>828928</v>
+        <v>7768604</v>
       </c>
       <c r="G131" t="n">
-        <v>374087</v>
+        <v>4898203</v>
       </c>
       <c r="H131" t="n">
-        <v>0.48</v>
+        <v>0.217</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>99.721</v>
       </c>
       <c r="J131" t="n">
-        <v>3.6</v>
+        <v>296.386</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>63848</v>
+        <v>18491</v>
       </c>
       <c r="C132" t="n">
-        <v>997</v>
+        <v>225</v>
       </c>
       <c r="D132" t="n">
-        <v>62471</v>
+        <v>4225</v>
       </c>
       <c r="E132" t="n">
-        <v>380</v>
+        <v>14041</v>
       </c>
       <c r="F132" t="n">
-        <v>1009957</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>4901981</v>
+        <v>6779100</v>
       </c>
       <c r="H132" t="n">
-        <v>1.56</v>
+        <v>1.217</v>
       </c>
       <c r="I132" t="n">
-        <v>97.84</v>
+        <v>22.849</v>
       </c>
       <c r="J132" t="n">
-        <v>15.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>43025</v>
+        <v>9931</v>
       </c>
       <c r="C133" t="n">
-        <v>1051</v>
+        <v>312</v>
       </c>
       <c r="D133" t="n">
-        <v>41278</v>
+        <v>8890</v>
       </c>
       <c r="E133" t="n">
-        <v>696</v>
+        <v>729</v>
       </c>
       <c r="F133" t="n">
-        <v>358675</v>
+        <v>254538</v>
       </c>
       <c r="G133" t="n">
-        <v>1274727</v>
+        <v>26083660</v>
       </c>
       <c r="H133" t="n">
-        <v>2.44</v>
+        <v>3.142</v>
       </c>
       <c r="I133" t="n">
-        <v>95.94</v>
+        <v>89.518</v>
       </c>
       <c r="J133" t="n">
-        <v>8.34</v>
+        <v>2563.065</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>42027</v>
+        <v>267188</v>
       </c>
       <c r="C134" t="n">
-        <v>188</v>
+        <v>3155</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>259953</v>
       </c>
       <c r="E134" t="n">
-        <v>41839</v>
+        <v>4080</v>
       </c>
       <c r="F134" t="n">
-        <v>176919</v>
+        <v>5708974</v>
       </c>
       <c r="G134" t="n">
-        <v>286259</v>
+        <v>216746934</v>
       </c>
       <c r="H134" t="n">
-        <v>0.45</v>
+        <v>1.181</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>97.292</v>
       </c>
       <c r="J134" t="n">
-        <v>4.21</v>
+        <v>2136.688</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>7702809</v>
+        <v>1509732</v>
       </c>
       <c r="C135" t="n">
-        <v>334958</v>
+        <v>6638</v>
       </c>
       <c r="D135" t="n">
-        <v>6899865</v>
+        <v>1503094</v>
       </c>
       <c r="E135" t="n">
-        <v>467986</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>20013810</v>
+        <v>11002430</v>
       </c>
       <c r="G135" t="n">
-        <v>131562772</v>
+        <v>5511370</v>
       </c>
       <c r="H135" t="n">
-        <v>4.35</v>
+        <v>0.44</v>
       </c>
       <c r="I135" t="n">
-        <v>89.58</v>
+        <v>99.56</v>
       </c>
       <c r="J135" t="n">
-        <v>2.6</v>
+        <v>728.7670000000001</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Micronesia</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>26547</v>
+        <v>399449</v>
       </c>
       <c r="C136" t="n">
-        <v>65</v>
+        <v>4628</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>26482</v>
+        <v>394821</v>
       </c>
       <c r="F136" t="n">
-        <v>82430</v>
+        <v>25000000</v>
       </c>
       <c r="G136" t="n">
-        <v>117489</v>
+        <v>5323993</v>
       </c>
       <c r="H136" t="n">
-        <v>0.24</v>
+        <v>1.159</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>3.11</v>
+        <v>6258.621</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>635145</v>
+        <v>1581936</v>
       </c>
       <c r="C137" t="n">
-        <v>12218</v>
+        <v>30664</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>1538689</v>
       </c>
       <c r="E137" t="n">
-        <v>622927</v>
+        <v>12583</v>
       </c>
       <c r="F137" t="n">
-        <v>3216305</v>
+        <v>30589153</v>
       </c>
       <c r="G137" t="n">
-        <v>4013171</v>
+        <v>229488994</v>
       </c>
       <c r="H137" t="n">
-        <v>1.92</v>
+        <v>1.938</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>97.26600000000001</v>
       </c>
       <c r="J137" t="n">
-        <v>5.06</v>
+        <v>1933.653</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Palau</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>17181</v>
+        <v>6290</v>
       </c>
       <c r="C138" t="n">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>6276</v>
       </c>
       <c r="E138" t="n">
-        <v>17114</v>
+        <v>4</v>
       </c>
       <c r="F138" t="n">
-        <v>78646</v>
+        <v>71434</v>
       </c>
       <c r="G138" t="n">
-        <v>39783</v>
+        <v>18233</v>
       </c>
       <c r="H138" t="n">
-        <v>0.39</v>
+        <v>0.159</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>99.777</v>
       </c>
       <c r="J138" t="n">
-        <v>4.58</v>
+        <v>1135.676</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Palestine</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1011496</v>
+        <v>621008</v>
       </c>
       <c r="C139" t="n">
-        <v>2284</v>
+        <v>5404</v>
       </c>
       <c r="D139" t="n">
-        <v>1009212</v>
+        <v>615445</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="F139" t="n">
-        <v>4030048</v>
+        <v>3078533</v>
       </c>
       <c r="G139" t="n">
-        <v>3378078</v>
+        <v>5345541</v>
       </c>
       <c r="H139" t="n">
-        <v>0.23</v>
+        <v>0.87</v>
       </c>
       <c r="I139" t="n">
-        <v>99.77000000000001</v>
+        <v>99.104</v>
       </c>
       <c r="J139" t="n">
-        <v>3.98</v>
+        <v>495.732</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>296542</v>
+        <v>1059893</v>
       </c>
       <c r="C140" t="n">
-        <v>2846</v>
+        <v>8727</v>
       </c>
       <c r="D140" t="n">
-        <v>291794</v>
+        <v>1051102</v>
       </c>
       <c r="E140" t="n">
-        <v>1902</v>
+        <v>64</v>
       </c>
       <c r="F140" t="n">
-        <v>2769281</v>
+        <v>7882622</v>
       </c>
       <c r="G140" t="n">
-        <v>627950</v>
+        <v>4446964</v>
       </c>
       <c r="H140" t="n">
-        <v>0.96</v>
+        <v>0.823</v>
       </c>
       <c r="I140" t="n">
-        <v>98.40000000000001</v>
+        <v>99.17100000000001</v>
       </c>
       <c r="J140" t="n">
-        <v>9.34</v>
+        <v>743.7190000000001</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Montserrat</t>
+          <t>Papua New Guinea</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1403</v>
+        <v>46864</v>
       </c>
       <c r="C141" t="n">
-        <v>8</v>
+        <v>670</v>
       </c>
       <c r="D141" t="n">
-        <v>1376</v>
+        <v>46168</v>
       </c>
       <c r="E141" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F141" t="n">
-        <v>17762</v>
+        <v>249149</v>
       </c>
       <c r="G141" t="n">
-        <v>4965</v>
+        <v>9292169</v>
       </c>
       <c r="H141" t="n">
-        <v>0.5700000000000001</v>
+        <v>1.43</v>
       </c>
       <c r="I141" t="n">
-        <v>98.08</v>
+        <v>98.515</v>
       </c>
       <c r="J141" t="n">
-        <v>12.66</v>
+        <v>531.643</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1278992</v>
+        <v>837602</v>
       </c>
       <c r="C142" t="n">
-        <v>16303</v>
+        <v>20155</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>1262689</v>
+        <v>817447</v>
       </c>
       <c r="F142" t="n">
-        <v>13001033</v>
+        <v>2657506</v>
       </c>
       <c r="G142" t="n">
-        <v>37772756</v>
+        <v>7305843</v>
       </c>
       <c r="H142" t="n">
-        <v>1.27</v>
+        <v>2.406</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>10.17</v>
+        <v>317.276</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>233731</v>
+        <v>4572667</v>
       </c>
       <c r="C143" t="n">
-        <v>2250</v>
+        <v>222161</v>
       </c>
       <c r="D143" t="n">
-        <v>228805</v>
+        <v>4350506</v>
       </c>
       <c r="E143" t="n">
-        <v>2676</v>
+        <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>1371127</v>
+        <v>39010194</v>
       </c>
       <c r="G143" t="n">
-        <v>33089461</v>
+        <v>33684208</v>
       </c>
       <c r="H143" t="n">
-        <v>0.96</v>
+        <v>4.858</v>
       </c>
       <c r="I143" t="n">
-        <v>97.89</v>
+        <v>95.142</v>
       </c>
       <c r="J143" t="n">
-        <v>5.87</v>
+        <v>853.117</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>641873</v>
+        <v>4140383</v>
       </c>
       <c r="C144" t="n">
-        <v>19495</v>
+        <v>66864</v>
       </c>
       <c r="D144" t="n">
-        <v>620159</v>
+        <v>4067381</v>
       </c>
       <c r="E144" t="n">
-        <v>2219</v>
+        <v>6138</v>
       </c>
       <c r="F144" t="n">
-        <v>11711514</v>
+        <v>36102746</v>
       </c>
       <c r="G144" t="n">
-        <v>55227143</v>
+        <v>112508994</v>
       </c>
       <c r="H144" t="n">
-        <v>3.04</v>
+        <v>1.615</v>
       </c>
       <c r="I144" t="n">
-        <v>96.61999999999999</v>
+        <v>98.23699999999999</v>
       </c>
       <c r="J144" t="n">
-        <v>18.25</v>
+        <v>871.966</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>N. Korea</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>4772813</v>
+        <v>6661991</v>
       </c>
       <c r="C145" t="n">
-        <v>74</v>
+        <v>120598</v>
       </c>
       <c r="D145" t="n">
-        <v>4772739</v>
+        <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>6541393</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>39323709</v>
       </c>
       <c r="G145" t="n">
-        <v>25990679</v>
+        <v>37739785</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="I145" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>0</v>
+        <v>590.27</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>172389</v>
+        <v>5643062</v>
       </c>
       <c r="C146" t="n">
-        <v>4106</v>
+        <v>28126</v>
       </c>
       <c r="D146" t="n">
-        <v>167099</v>
+        <v>5614809</v>
       </c>
       <c r="E146" t="n">
-        <v>1184</v>
+        <v>127</v>
       </c>
       <c r="F146" t="n">
-        <v>1062663</v>
+        <v>46139518</v>
       </c>
       <c r="G146" t="n">
-        <v>2633874</v>
+        <v>10140570</v>
       </c>
       <c r="H146" t="n">
-        <v>2.38</v>
+        <v>0.498</v>
       </c>
       <c r="I146" t="n">
-        <v>96.93000000000001</v>
+        <v>99.499</v>
       </c>
       <c r="J146" t="n">
-        <v>6.16</v>
+        <v>817.633</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Nauru</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>5393</v>
+        <v>514524</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>690</v>
       </c>
       <c r="D147" t="n">
-        <v>5347</v>
+        <v>513687</v>
       </c>
       <c r="E147" t="n">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="F147" t="n">
-        <v>20509</v>
+        <v>4065369</v>
       </c>
       <c r="G147" t="n">
-        <v>10903</v>
+        <v>2979915</v>
       </c>
       <c r="H147" t="n">
-        <v>0.02</v>
+        <v>0.134</v>
       </c>
       <c r="I147" t="n">
-        <v>99.15000000000001</v>
+        <v>99.837</v>
       </c>
       <c r="J147" t="n">
-        <v>3.8</v>
+        <v>790.122</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1003450</v>
+        <v>3529735</v>
       </c>
       <c r="C148" t="n">
-        <v>12031</v>
+        <v>68929</v>
       </c>
       <c r="D148" t="n">
-        <v>991322</v>
+        <v>3460149</v>
       </c>
       <c r="E148" t="n">
-        <v>97</v>
+        <v>657</v>
       </c>
       <c r="F148" t="n">
-        <v>6047766</v>
+        <v>28758667</v>
       </c>
       <c r="G148" t="n">
-        <v>30225582</v>
+        <v>19031335</v>
       </c>
       <c r="H148" t="n">
-        <v>1.2</v>
+        <v>1.953</v>
       </c>
       <c r="I148" t="n">
-        <v>98.79000000000001</v>
+        <v>98.029</v>
       </c>
       <c r="J148" t="n">
-        <v>6.03</v>
+        <v>814.754</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>8635786</v>
+        <v>24124215</v>
       </c>
       <c r="C149" t="n">
-        <v>22992</v>
+        <v>402756</v>
       </c>
       <c r="D149" t="n">
-        <v>8612599</v>
+        <v>23545818</v>
       </c>
       <c r="E149" t="n">
-        <v>195</v>
+        <v>175641</v>
       </c>
       <c r="F149" t="n">
-        <v>25984435</v>
+        <v>273400000</v>
       </c>
       <c r="G149" t="n">
-        <v>17211447</v>
+        <v>145805947</v>
       </c>
       <c r="H149" t="n">
-        <v>0.27</v>
+        <v>1.67</v>
       </c>
       <c r="I149" t="n">
-        <v>99.72999999999999</v>
+        <v>97.602</v>
       </c>
       <c r="J149" t="n">
-        <v>3.01</v>
+        <v>1133.301</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>New Caledonia</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>80064</v>
+        <v>133518</v>
       </c>
       <c r="C150" t="n">
-        <v>314</v>
+        <v>1468</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>132039</v>
       </c>
       <c r="E150" t="n">
-        <v>79750</v>
+        <v>11</v>
       </c>
       <c r="F150" t="n">
-        <v>98964</v>
+        <v>6021981</v>
       </c>
       <c r="G150" t="n">
-        <v>290915</v>
+        <v>13600464</v>
       </c>
       <c r="H150" t="n">
-        <v>0.39</v>
+        <v>1.099</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>98.892</v>
       </c>
       <c r="J150" t="n">
-        <v>1.24</v>
+        <v>4510.239</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>S. Korea</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2621111</v>
+        <v>34571873</v>
       </c>
       <c r="C151" t="n">
-        <v>5697</v>
+        <v>35934</v>
       </c>
       <c r="D151" t="n">
-        <v>2613791</v>
+        <v>34535939</v>
       </c>
       <c r="E151" t="n">
-        <v>1623</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>7768604</v>
+        <v>15804065</v>
       </c>
       <c r="G151" t="n">
-        <v>4898203</v>
+        <v>51329899</v>
       </c>
       <c r="H151" t="n">
-        <v>0.22</v>
+        <v>0.104</v>
       </c>
       <c r="I151" t="n">
-        <v>99.72</v>
+        <v>99.896</v>
       </c>
       <c r="J151" t="n">
-        <v>2.96</v>
+        <v>45.714</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Saint Kitts and Nevis</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>18491</v>
+        <v>6607</v>
       </c>
       <c r="C152" t="n">
-        <v>225</v>
+        <v>48</v>
       </c>
       <c r="D152" t="n">
-        <v>4225</v>
+        <v>6559</v>
       </c>
       <c r="E152" t="n">
-        <v>14041</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>126958</v>
       </c>
       <c r="G152" t="n">
-        <v>6779100</v>
+        <v>53871</v>
       </c>
       <c r="H152" t="n">
-        <v>1.22</v>
+        <v>0.727</v>
       </c>
       <c r="I152" t="n">
-        <v>22.85</v>
+        <v>99.273</v>
       </c>
       <c r="J152" t="n">
-        <v>0</v>
+        <v>1921.568</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>9931</v>
+        <v>30215</v>
       </c>
       <c r="C153" t="n">
-        <v>312</v>
+        <v>410</v>
       </c>
       <c r="D153" t="n">
-        <v>8890</v>
+        <v>29805</v>
       </c>
       <c r="E153" t="n">
-        <v>729</v>
+        <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>254538</v>
+        <v>210983</v>
       </c>
       <c r="G153" t="n">
-        <v>26083660</v>
+        <v>185113</v>
       </c>
       <c r="H153" t="n">
-        <v>3.14</v>
+        <v>1.357</v>
       </c>
       <c r="I153" t="n">
-        <v>89.52</v>
+        <v>98.643</v>
       </c>
       <c r="J153" t="n">
-        <v>25.63</v>
+        <v>698.272</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Saint Vincent and the Grenadines</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>267188</v>
+        <v>9674</v>
       </c>
       <c r="C154" t="n">
-        <v>3155</v>
+        <v>124</v>
       </c>
       <c r="D154" t="n">
-        <v>259953</v>
+        <v>9493</v>
       </c>
       <c r="E154" t="n">
-        <v>4080</v>
+        <v>57</v>
       </c>
       <c r="F154" t="n">
-        <v>5708974</v>
+        <v>114197</v>
       </c>
       <c r="G154" t="n">
-        <v>216746934</v>
+        <v>111551</v>
       </c>
       <c r="H154" t="n">
-        <v>1.18</v>
+        <v>1.282</v>
       </c>
       <c r="I154" t="n">
-        <v>97.28999999999999</v>
+        <v>98.129</v>
       </c>
       <c r="J154" t="n">
-        <v>21.37</v>
+        <v>1180.453</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Niue</t>
+          <t>Samoa</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1059</v>
+        <v>17006</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D155" t="n">
-        <v>1056</v>
+        <v>1605</v>
       </c>
       <c r="E155" t="n">
-        <v>3</v>
+        <v>15370</v>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>187397</v>
       </c>
       <c r="G155" t="n">
-        <v>1622</v>
+        <v>202239</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>0.182</v>
       </c>
       <c r="I155" t="n">
-        <v>99.72</v>
+        <v>9.438000000000001</v>
       </c>
       <c r="J155" t="n">
-        <v>0</v>
+        <v>1101.946</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>San Marino</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1509732</v>
+        <v>26185</v>
       </c>
       <c r="C156" t="n">
-        <v>6638</v>
+        <v>128</v>
       </c>
       <c r="D156" t="n">
-        <v>1503094</v>
+        <v>26011</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F156" t="n">
-        <v>11002430</v>
+        <v>196855</v>
       </c>
       <c r="G156" t="n">
-        <v>5511370</v>
+        <v>34085</v>
       </c>
       <c r="H156" t="n">
-        <v>0.44</v>
+        <v>0.489</v>
       </c>
       <c r="I156" t="n">
-        <v>99.56</v>
+        <v>99.33499999999999</v>
       </c>
       <c r="J156" t="n">
-        <v>7.29</v>
+        <v>751.785</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Sao Tome and Principe</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>399449</v>
+        <v>6778</v>
       </c>
       <c r="C157" t="n">
-        <v>4628</v>
+        <v>80</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>6685</v>
       </c>
       <c r="E157" t="n">
-        <v>394821</v>
+        <v>13</v>
       </c>
       <c r="F157" t="n">
-        <v>25000000</v>
+        <v>29600</v>
       </c>
       <c r="G157" t="n">
-        <v>5323993</v>
+        <v>227679</v>
       </c>
       <c r="H157" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>98.628</v>
       </c>
       <c r="J157" t="n">
-        <v>62.59</v>
+        <v>436.707</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1581936</v>
+        <v>841469</v>
       </c>
       <c r="C158" t="n">
-        <v>30664</v>
+        <v>9646</v>
       </c>
       <c r="D158" t="n">
-        <v>1538689</v>
+        <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>12583</v>
+        <v>831823</v>
       </c>
       <c r="F158" t="n">
-        <v>30589153</v>
+        <v>45481735</v>
       </c>
       <c r="G158" t="n">
-        <v>229488994</v>
+        <v>35844909</v>
       </c>
       <c r="H158" t="n">
-        <v>1.94</v>
+        <v>1.146</v>
       </c>
       <c r="I158" t="n">
-        <v>97.27</v>
+        <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>19.34</v>
+        <v>5405.04</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Palau</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>6290</v>
+        <v>89053</v>
       </c>
       <c r="C159" t="n">
-        <v>10</v>
+        <v>1971</v>
       </c>
       <c r="D159" t="n">
-        <v>6276</v>
+        <v>87024</v>
       </c>
       <c r="E159" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F159" t="n">
-        <v>71434</v>
+        <v>1146543</v>
       </c>
       <c r="G159" t="n">
-        <v>18233</v>
+        <v>17653671</v>
       </c>
       <c r="H159" t="n">
-        <v>0.16</v>
+        <v>2.213</v>
       </c>
       <c r="I159" t="n">
-        <v>99.78</v>
+        <v>97.72199999999999</v>
       </c>
       <c r="J159" t="n">
-        <v>11.36</v>
+        <v>1287.484</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Palestine</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>621008</v>
+        <v>2615054</v>
       </c>
       <c r="C160" t="n">
-        <v>5404</v>
+        <v>18057</v>
       </c>
       <c r="D160" t="n">
-        <v>615445</v>
+        <v>2596608</v>
       </c>
       <c r="E160" t="n">
-        <v>159</v>
+        <v>389</v>
       </c>
       <c r="F160" t="n">
-        <v>3078533</v>
+        <v>13463733</v>
       </c>
       <c r="G160" t="n">
-        <v>5345541</v>
+        <v>8653016</v>
       </c>
       <c r="H160" t="n">
-        <v>0.8699999999999999</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="I160" t="n">
-        <v>99.09999999999999</v>
+        <v>99.295</v>
       </c>
       <c r="J160" t="n">
-        <v>4.96</v>
+        <v>514.855</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Seychelles</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1059893</v>
+        <v>51220</v>
       </c>
       <c r="C161" t="n">
-        <v>8727</v>
+        <v>172</v>
       </c>
       <c r="D161" t="n">
-        <v>1051102</v>
+        <v>51048</v>
       </c>
       <c r="E161" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>7882622</v>
+        <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>4446964</v>
+        <v>99426</v>
       </c>
       <c r="H161" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.336</v>
       </c>
       <c r="I161" t="n">
-        <v>99.17</v>
+        <v>99.664</v>
       </c>
       <c r="J161" t="n">
-        <v>7.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>46864</v>
+        <v>7779</v>
       </c>
       <c r="C162" t="n">
-        <v>670</v>
+        <v>126</v>
       </c>
       <c r="D162" t="n">
-        <v>46168</v>
+        <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>26</v>
+        <v>7653</v>
       </c>
       <c r="F162" t="n">
-        <v>249149</v>
+        <v>259958</v>
       </c>
       <c r="G162" t="n">
-        <v>9292169</v>
+        <v>8306436</v>
       </c>
       <c r="H162" t="n">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="I162" t="n">
-        <v>98.50999999999999</v>
+        <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>5.32</v>
+        <v>3341.792</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>837602</v>
+        <v>3006155</v>
       </c>
       <c r="C163" t="n">
-        <v>20155</v>
+        <v>2024</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>3004131</v>
       </c>
       <c r="E163" t="n">
-        <v>817447</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>2657506</v>
+        <v>24756666</v>
       </c>
       <c r="G163" t="n">
-        <v>7305843</v>
+        <v>5943546</v>
       </c>
       <c r="H163" t="n">
-        <v>2.41</v>
+        <v>0.067</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>99.93300000000001</v>
       </c>
       <c r="J163" t="n">
-        <v>3.17</v>
+        <v>823.533</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>4572667</v>
+        <v>1877605</v>
       </c>
       <c r="C164" t="n">
-        <v>222161</v>
+        <v>21224</v>
       </c>
       <c r="D164" t="n">
-        <v>4350506</v>
+        <v>1856381</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>39010194</v>
+        <v>7448789</v>
       </c>
       <c r="G164" t="n">
-        <v>33684208</v>
+        <v>5460193</v>
       </c>
       <c r="H164" t="n">
-        <v>4.859999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="I164" t="n">
-        <v>95.14</v>
+        <v>98.87</v>
       </c>
       <c r="J164" t="n">
-        <v>8.529999999999999</v>
+        <v>396.718</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>4140383</v>
+        <v>1356546</v>
       </c>
       <c r="C165" t="n">
-        <v>66864</v>
+        <v>7100</v>
       </c>
       <c r="D165" t="n">
-        <v>4067381</v>
+        <v>1349424</v>
       </c>
       <c r="E165" t="n">
-        <v>6138</v>
+        <v>22</v>
       </c>
       <c r="F165" t="n">
-        <v>36102746</v>
+        <v>2847701</v>
       </c>
       <c r="G165" t="n">
-        <v>112508994</v>
+        <v>2078034</v>
       </c>
       <c r="H165" t="n">
-        <v>1.61</v>
+        <v>0.523</v>
       </c>
       <c r="I165" t="n">
-        <v>98.24000000000001</v>
+        <v>99.47499999999999</v>
       </c>
       <c r="J165" t="n">
-        <v>8.720000000000001</v>
+        <v>209.923</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>6661991</v>
+        <v>25954</v>
       </c>
       <c r="C166" t="n">
-        <v>120598</v>
+        <v>199</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>6541393</v>
+        <v>25755</v>
       </c>
       <c r="F166" t="n">
-        <v>39323709</v>
+        <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>37739785</v>
+        <v>721159</v>
       </c>
       <c r="H166" t="n">
-        <v>1.81</v>
+        <v>0.767</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>5643062</v>
+        <v>27334</v>
       </c>
       <c r="C167" t="n">
-        <v>28126</v>
+        <v>1361</v>
       </c>
       <c r="D167" t="n">
-        <v>5614809</v>
+        <v>13182</v>
       </c>
       <c r="E167" t="n">
-        <v>127</v>
+        <v>12791</v>
       </c>
       <c r="F167" t="n">
-        <v>46139518</v>
+        <v>400466</v>
       </c>
       <c r="G167" t="n">
-        <v>10140570</v>
+        <v>16841795</v>
       </c>
       <c r="H167" t="n">
-        <v>0.5</v>
+        <v>4.979</v>
       </c>
       <c r="I167" t="n">
-        <v>99.5</v>
+        <v>48.226</v>
       </c>
       <c r="J167" t="n">
-        <v>8.18</v>
+        <v>1465.084</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>514524</v>
+        <v>4076463</v>
       </c>
       <c r="C168" t="n">
-        <v>690</v>
+        <v>102595</v>
       </c>
       <c r="D168" t="n">
-        <v>513687</v>
+        <v>3912506</v>
       </c>
       <c r="E168" t="n">
-        <v>147</v>
+        <v>61362</v>
       </c>
       <c r="F168" t="n">
-        <v>4065369</v>
+        <v>26795090</v>
       </c>
       <c r="G168" t="n">
-        <v>2979915</v>
+        <v>60756135</v>
       </c>
       <c r="H168" t="n">
-        <v>0.13</v>
+        <v>2.517</v>
       </c>
       <c r="I168" t="n">
-        <v>99.83999999999999</v>
+        <v>95.97799999999999</v>
       </c>
       <c r="J168" t="n">
-        <v>7.9</v>
+        <v>657.312</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>South Sudan</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>3529735</v>
+        <v>18819</v>
       </c>
       <c r="C169" t="n">
-        <v>68929</v>
+        <v>147</v>
       </c>
       <c r="D169" t="n">
-        <v>3460149</v>
+        <v>18115</v>
       </c>
       <c r="E169" t="n">
-        <v>657</v>
+        <v>557</v>
       </c>
       <c r="F169" t="n">
-        <v>28758667</v>
+        <v>410280</v>
       </c>
       <c r="G169" t="n">
-        <v>19031335</v>
+        <v>11618511</v>
       </c>
       <c r="H169" t="n">
-        <v>1.95</v>
+        <v>0.781</v>
       </c>
       <c r="I169" t="n">
-        <v>98.03</v>
+        <v>96.259</v>
       </c>
       <c r="J169" t="n">
-        <v>8.15</v>
+        <v>2180.137</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>24124215</v>
+        <v>13914811</v>
       </c>
       <c r="C170" t="n">
-        <v>402756</v>
+        <v>121760</v>
       </c>
       <c r="D170" t="n">
-        <v>23545818</v>
+        <v>13762417</v>
       </c>
       <c r="E170" t="n">
-        <v>175641</v>
+        <v>30634</v>
       </c>
       <c r="F170" t="n">
-        <v>273400000</v>
+        <v>471036328</v>
       </c>
       <c r="G170" t="n">
-        <v>145805947</v>
+        <v>46719142</v>
       </c>
       <c r="H170" t="n">
-        <v>1.67</v>
+        <v>0.875</v>
       </c>
       <c r="I170" t="n">
-        <v>97.59999999999999</v>
+        <v>98.905</v>
       </c>
       <c r="J170" t="n">
-        <v>11.33</v>
+        <v>3385.144</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>133518</v>
+        <v>672754</v>
       </c>
       <c r="C171" t="n">
-        <v>1468</v>
+        <v>16897</v>
       </c>
       <c r="D171" t="n">
-        <v>132039</v>
+        <v>655852</v>
       </c>
       <c r="E171" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F171" t="n">
-        <v>6021981</v>
+        <v>6486117</v>
       </c>
       <c r="G171" t="n">
-        <v>13600464</v>
+        <v>21575842</v>
       </c>
       <c r="H171" t="n">
-        <v>1.1</v>
+        <v>2.512</v>
       </c>
       <c r="I171" t="n">
-        <v>98.89</v>
+        <v>97.488</v>
       </c>
       <c r="J171" t="n">
-        <v>45.1</v>
+        <v>964.114</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Réunion</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>494595</v>
+        <v>63993</v>
       </c>
       <c r="C172" t="n">
-        <v>921</v>
+        <v>5046</v>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>58947</v>
       </c>
       <c r="E172" t="n">
-        <v>493674</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>1603660</v>
+        <v>562941</v>
       </c>
       <c r="G172" t="n">
-        <v>908061</v>
+        <v>45992020</v>
       </c>
       <c r="H172" t="n">
-        <v>0.19</v>
+        <v>7.885</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>92.11499999999999</v>
       </c>
       <c r="J172" t="n">
-        <v>3.24</v>
+        <v>879.692</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>S. Korea</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>34571873</v>
+        <v>82588</v>
       </c>
       <c r="C173" t="n">
-        <v>35934</v>
+        <v>1408</v>
       </c>
       <c r="D173" t="n">
-        <v>34535939</v>
+        <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>81180</v>
       </c>
       <c r="F173" t="n">
-        <v>15804065</v>
+        <v>242207</v>
       </c>
       <c r="G173" t="n">
-        <v>51329899</v>
+        <v>596831</v>
       </c>
       <c r="H173" t="n">
-        <v>0.1</v>
+        <v>1.705</v>
       </c>
       <c r="I173" t="n">
-        <v>99.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>0.46</v>
+        <v>293.271</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Saint Helena</t>
+          <t>Swaziland</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>2166</v>
+        <v>75191</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1427</v>
       </c>
       <c r="D174" t="n">
-        <v>2</v>
+        <v>73116</v>
       </c>
       <c r="E174" t="n">
-        <v>2164</v>
+        <v>648</v>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>1048704</v>
       </c>
       <c r="G174" t="n">
-        <v>6115</v>
+        <v>1184817</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>1.898</v>
       </c>
       <c r="I174" t="n">
-        <v>0.09</v>
+        <v>97.23999999999999</v>
       </c>
       <c r="J174" t="n">
-        <v>0</v>
+        <v>1394.72</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Saint Kitts and Nevis</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>6607</v>
+        <v>2754129</v>
       </c>
       <c r="C175" t="n">
-        <v>48</v>
+        <v>27407</v>
       </c>
       <c r="D175" t="n">
-        <v>6559</v>
+        <v>2726492</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="F175" t="n">
-        <v>126958</v>
+        <v>19500873</v>
       </c>
       <c r="G175" t="n">
-        <v>53871</v>
+        <v>10218971</v>
       </c>
       <c r="H175" t="n">
-        <v>0.73</v>
+        <v>0.995</v>
       </c>
       <c r="I175" t="n">
-        <v>99.27</v>
+        <v>98.997</v>
       </c>
       <c r="J175" t="n">
-        <v>19.22</v>
+        <v>708.0599999999999</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Saint Lucia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>30215</v>
+        <v>4453053</v>
       </c>
       <c r="C176" t="n">
-        <v>410</v>
+        <v>14452</v>
       </c>
       <c r="D176" t="n">
-        <v>29805</v>
+        <v>4438309</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="F176" t="n">
-        <v>210983</v>
+        <v>23833472</v>
       </c>
       <c r="G176" t="n">
-        <v>185113</v>
+        <v>8773637</v>
       </c>
       <c r="H176" t="n">
-        <v>1.36</v>
+        <v>0.325</v>
       </c>
       <c r="I176" t="n">
-        <v>98.64</v>
+        <v>99.669</v>
       </c>
       <c r="J176" t="n">
-        <v>6.98</v>
+        <v>535.216</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Saint Martin</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>12324</v>
+        <v>57743</v>
       </c>
       <c r="C177" t="n">
-        <v>63</v>
+        <v>3165</v>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>54578</v>
       </c>
       <c r="E177" t="n">
-        <v>12261</v>
+        <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>112382</v>
+        <v>146269</v>
       </c>
       <c r="G177" t="n">
-        <v>39730</v>
+        <v>19364809</v>
       </c>
       <c r="H177" t="n">
-        <v>0.51</v>
+        <v>5.481</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>94.51900000000001</v>
       </c>
       <c r="J177" t="n">
-        <v>9.119999999999999</v>
+        <v>253.31</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Saint Pierre Miquelon</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>3452</v>
+        <v>10241523</v>
       </c>
       <c r="C178" t="n">
-        <v>2</v>
+        <v>19005</v>
       </c>
       <c r="D178" t="n">
-        <v>2449</v>
+        <v>10222518</v>
       </c>
       <c r="E178" t="n">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>25400</v>
+        <v>30742304</v>
       </c>
       <c r="G178" t="n">
-        <v>5759</v>
+        <v>23888595</v>
       </c>
       <c r="H178" t="n">
-        <v>0.06</v>
+        <v>0.186</v>
       </c>
       <c r="I178" t="n">
-        <v>70.94</v>
+        <v>99.81399999999999</v>
       </c>
       <c r="J178" t="n">
-        <v>7.36</v>
+        <v>300.173</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Saint Vincent and the Grenadines</t>
+          <t>Tajikistan</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>9674</v>
+        <v>17786</v>
       </c>
       <c r="C179" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D179" t="n">
-        <v>9493</v>
+        <v>17264</v>
       </c>
       <c r="E179" t="n">
-        <v>57</v>
+        <v>397</v>
       </c>
       <c r="F179" t="n">
-        <v>114197</v>
+        <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>111551</v>
+        <v>9957464</v>
       </c>
       <c r="H179" t="n">
-        <v>1.28</v>
+        <v>0.703</v>
       </c>
       <c r="I179" t="n">
-        <v>98.13</v>
+        <v>97.065</v>
       </c>
       <c r="J179" t="n">
-        <v>11.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Samoa</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>17006</v>
+        <v>43223</v>
       </c>
       <c r="C180" t="n">
-        <v>31</v>
+        <v>846</v>
       </c>
       <c r="D180" t="n">
-        <v>1605</v>
+        <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>15370</v>
+        <v>42377</v>
       </c>
       <c r="F180" t="n">
-        <v>187397</v>
+        <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>202239</v>
+        <v>63298550</v>
       </c>
       <c r="H180" t="n">
-        <v>0.18</v>
+        <v>1.957</v>
       </c>
       <c r="I180" t="n">
-        <v>9.44</v>
+        <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>11.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>San Marino</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>26185</v>
+        <v>4770149</v>
       </c>
       <c r="C181" t="n">
-        <v>128</v>
+        <v>34586</v>
       </c>
       <c r="D181" t="n">
-        <v>26011</v>
+        <v>4692636</v>
       </c>
       <c r="E181" t="n">
-        <v>46</v>
+        <v>42927</v>
       </c>
       <c r="F181" t="n">
-        <v>196855</v>
+        <v>17273454</v>
       </c>
       <c r="G181" t="n">
-        <v>34085</v>
+        <v>70078203</v>
       </c>
       <c r="H181" t="n">
-        <v>0.49</v>
+        <v>0.725</v>
       </c>
       <c r="I181" t="n">
-        <v>99.33999999999999</v>
+        <v>98.375</v>
       </c>
       <c r="J181" t="n">
-        <v>7.52</v>
+        <v>362.116</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sao Tome and Principe</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>6778</v>
+        <v>23460</v>
       </c>
       <c r="C182" t="n">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="D182" t="n">
-        <v>6685</v>
+        <v>23102</v>
       </c>
       <c r="E182" t="n">
-        <v>13</v>
+        <v>220</v>
       </c>
       <c r="F182" t="n">
-        <v>29600</v>
+        <v>278529</v>
       </c>
       <c r="G182" t="n">
-        <v>227679</v>
+        <v>1369429</v>
       </c>
       <c r="H182" t="n">
-        <v>1.18</v>
+        <v>0.588</v>
       </c>
       <c r="I182" t="n">
-        <v>98.63</v>
+        <v>98.474</v>
       </c>
       <c r="J182" t="n">
-        <v>4.37</v>
+        <v>1187.251</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>841469</v>
+        <v>39572</v>
       </c>
       <c r="C183" t="n">
-        <v>9646</v>
+        <v>290</v>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>39281</v>
       </c>
       <c r="E183" t="n">
-        <v>831823</v>
+        <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>45481735</v>
+        <v>815204</v>
       </c>
       <c r="G183" t="n">
-        <v>35844909</v>
+        <v>8680837</v>
       </c>
       <c r="H183" t="n">
-        <v>1.15</v>
+        <v>0.733</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>99.265</v>
       </c>
       <c r="J183" t="n">
-        <v>54.05</v>
+        <v>2060.053</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Tonga</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>89053</v>
+        <v>16950</v>
       </c>
       <c r="C184" t="n">
-        <v>1971</v>
+        <v>13</v>
       </c>
       <c r="D184" t="n">
-        <v>87024</v>
+        <v>15638</v>
       </c>
       <c r="E184" t="n">
-        <v>58</v>
+        <v>1299</v>
       </c>
       <c r="F184" t="n">
-        <v>1146543</v>
+        <v>535009</v>
       </c>
       <c r="G184" t="n">
-        <v>17653671</v>
+        <v>107749</v>
       </c>
       <c r="H184" t="n">
-        <v>2.21</v>
+        <v>0.077</v>
       </c>
       <c r="I184" t="n">
-        <v>97.72</v>
+        <v>92.26000000000001</v>
       </c>
       <c r="J184" t="n">
-        <v>12.87</v>
+        <v>3156.395</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Trinidad and Tobago</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>2615054</v>
+        <v>191496</v>
       </c>
       <c r="C185" t="n">
-        <v>18057</v>
+        <v>4390</v>
       </c>
       <c r="D185" t="n">
-        <v>2596608</v>
+        <v>187078</v>
       </c>
       <c r="E185" t="n">
-        <v>389</v>
+        <v>28</v>
       </c>
       <c r="F185" t="n">
-        <v>13463733</v>
+        <v>913289</v>
       </c>
       <c r="G185" t="n">
-        <v>8653016</v>
+        <v>1406585</v>
       </c>
       <c r="H185" t="n">
-        <v>0.6899999999999999</v>
+        <v>2.292</v>
       </c>
       <c r="I185" t="n">
-        <v>99.29000000000001</v>
+        <v>97.693</v>
       </c>
       <c r="J185" t="n">
-        <v>5.15</v>
+        <v>476.923</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Seychelles</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>51220</v>
+        <v>1153361</v>
       </c>
       <c r="C186" t="n">
-        <v>172</v>
+        <v>29423</v>
       </c>
       <c r="D186" t="n">
-        <v>51048</v>
+        <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>1123938</v>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>5013383</v>
       </c>
       <c r="G186" t="n">
-        <v>99426</v>
+        <v>12046656</v>
       </c>
       <c r="H186" t="n">
-        <v>0.34</v>
+        <v>2.551</v>
       </c>
       <c r="I186" t="n">
-        <v>99.66000000000001</v>
+        <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>0</v>
+        <v>434.676</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>7779</v>
+        <v>17232066</v>
       </c>
       <c r="C187" t="n">
-        <v>126</v>
+        <v>102174</v>
       </c>
       <c r="D187" t="n">
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>7653</v>
+        <v>17129892</v>
       </c>
       <c r="F187" t="n">
-        <v>259958</v>
+        <v>162743369</v>
       </c>
       <c r="G187" t="n">
-        <v>8306436</v>
+        <v>85561976</v>
       </c>
       <c r="H187" t="n">
-        <v>1.62</v>
+        <v>0.593</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>33.42</v>
+        <v>944.422</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Turks and Caicos Islands</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>3006155</v>
+        <v>6752</v>
       </c>
       <c r="C188" t="n">
-        <v>2024</v>
+        <v>40</v>
       </c>
       <c r="D188" t="n">
-        <v>3004131</v>
+        <v>6709</v>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F188" t="n">
-        <v>24756666</v>
+        <v>616788</v>
       </c>
       <c r="G188" t="n">
-        <v>5943546</v>
+        <v>39741</v>
       </c>
       <c r="H188" t="n">
-        <v>0.06999999999999999</v>
+        <v>0.592</v>
       </c>
       <c r="I188" t="n">
-        <v>99.92999999999999</v>
+        <v>99.363</v>
       </c>
       <c r="J188" t="n">
-        <v>8.24</v>
+        <v>9134.893</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sint Maarten</t>
+          <t>Tuvalu</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>11051</v>
+        <v>2943</v>
       </c>
       <c r="C189" t="n">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>10905</v>
+        <v>0</v>
       </c>
       <c r="E189" t="n">
-        <v>54</v>
+        <v>2942</v>
       </c>
       <c r="F189" t="n">
-        <v>62056</v>
+        <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>43966</v>
+        <v>12066</v>
       </c>
       <c r="H189" t="n">
-        <v>0.83</v>
+        <v>0.034</v>
       </c>
       <c r="I189" t="n">
-        <v>98.68000000000001</v>
+        <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>5.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1877605</v>
+        <v>1067030</v>
       </c>
       <c r="C190" t="n">
-        <v>21224</v>
+        <v>2349</v>
       </c>
       <c r="D190" t="n">
-        <v>1856381</v>
+        <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
+        <v>1064681</v>
       </c>
       <c r="F190" t="n">
-        <v>7448789</v>
+        <v>200732262</v>
       </c>
       <c r="G190" t="n">
-        <v>5460193</v>
+        <v>10081785</v>
       </c>
       <c r="H190" t="n">
-        <v>1.13</v>
+        <v>0.22</v>
       </c>
       <c r="I190" t="n">
-        <v>98.87</v>
+        <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>3.97</v>
+        <v>18812.242</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1356546</v>
+        <v>24910387</v>
       </c>
       <c r="C191" t="n">
-        <v>7100</v>
+        <v>232112</v>
       </c>
       <c r="D191" t="n">
-        <v>1349424</v>
+        <v>24678275</v>
       </c>
       <c r="E191" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>2847701</v>
+        <v>522526476</v>
       </c>
       <c r="G191" t="n">
-        <v>2078034</v>
+        <v>68497907</v>
       </c>
       <c r="H191" t="n">
-        <v>0.52</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="I191" t="n">
-        <v>99.47</v>
+        <v>99.068</v>
       </c>
       <c r="J191" t="n">
-        <v>2.1</v>
+        <v>2097.625</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>25954</v>
+        <v>111820082</v>
       </c>
       <c r="C192" t="n">
-        <v>199</v>
+        <v>1219487</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>109814428</v>
       </c>
       <c r="E192" t="n">
-        <v>25755</v>
+        <v>786167</v>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>1186851502</v>
       </c>
       <c r="G192" t="n">
-        <v>721159</v>
+        <v>334805269</v>
       </c>
       <c r="H192" t="n">
-        <v>0.77</v>
+        <v>1.091</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>98.206</v>
       </c>
       <c r="J192" t="n">
-        <v>0</v>
+        <v>1061.394</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>27334</v>
+        <v>172149</v>
       </c>
       <c r="C193" t="n">
-        <v>1361</v>
+        <v>3632</v>
       </c>
       <c r="D193" t="n">
-        <v>13182</v>
+        <v>100431</v>
       </c>
       <c r="E193" t="n">
-        <v>12791</v>
+        <v>68086</v>
       </c>
       <c r="F193" t="n">
-        <v>400466</v>
+        <v>3012408</v>
       </c>
       <c r="G193" t="n">
-        <v>16841795</v>
+        <v>48432863</v>
       </c>
       <c r="H193" t="n">
-        <v>4.98</v>
+        <v>2.11</v>
       </c>
       <c r="I193" t="n">
-        <v>48.23</v>
+        <v>58.34</v>
       </c>
       <c r="J193" t="n">
-        <v>14.65</v>
+        <v>1749.884</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>4076463</v>
+        <v>5557995</v>
       </c>
       <c r="C194" t="n">
-        <v>102595</v>
+        <v>112418</v>
       </c>
       <c r="D194" t="n">
-        <v>3912506</v>
+        <v>5445577</v>
       </c>
       <c r="E194" t="n">
-        <v>61362</v>
+        <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>26795090</v>
+        <v>32603805</v>
       </c>
       <c r="G194" t="n">
-        <v>60756135</v>
+        <v>43192122</v>
       </c>
       <c r="H194" t="n">
-        <v>2.52</v>
+        <v>2.023</v>
       </c>
       <c r="I194" t="n">
-        <v>95.98</v>
+        <v>97.977</v>
       </c>
       <c r="J194" t="n">
-        <v>6.57</v>
+        <v>586.611</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>South Sudan</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>18819</v>
+        <v>1041111</v>
       </c>
       <c r="C195" t="n">
-        <v>147</v>
+        <v>7664</v>
       </c>
       <c r="D195" t="n">
-        <v>18115</v>
+        <v>1030944</v>
       </c>
       <c r="E195" t="n">
-        <v>557</v>
+        <v>2503</v>
       </c>
       <c r="F195" t="n">
-        <v>410280</v>
+        <v>6114822</v>
       </c>
       <c r="G195" t="n">
-        <v>11618511</v>
+        <v>3496016</v>
       </c>
       <c r="H195" t="n">
-        <v>0.7799999999999999</v>
+        <v>0.736</v>
       </c>
       <c r="I195" t="n">
-        <v>96.26000000000001</v>
+        <v>99.023</v>
       </c>
       <c r="J195" t="n">
-        <v>21.8</v>
+        <v>587.336</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>13914811</v>
+        <v>253662</v>
       </c>
       <c r="C196" t="n">
-        <v>121760</v>
+        <v>1637</v>
       </c>
       <c r="D196" t="n">
-        <v>13762417</v>
+        <v>241486</v>
       </c>
       <c r="E196" t="n">
-        <v>30634</v>
+        <v>10539</v>
       </c>
       <c r="F196" t="n">
-        <v>471036328</v>
+        <v>1377915</v>
       </c>
       <c r="G196" t="n">
-        <v>46719142</v>
+        <v>34382084</v>
       </c>
       <c r="H196" t="n">
-        <v>0.88</v>
+        <v>0.645</v>
       </c>
       <c r="I196" t="n">
-        <v>98.90000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="J196" t="n">
-        <v>33.85</v>
+        <v>543.2089999999999</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Vanuatu</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>672754</v>
+        <v>12019</v>
       </c>
       <c r="C197" t="n">
-        <v>16897</v>
+        <v>14</v>
       </c>
       <c r="D197" t="n">
-        <v>655852</v>
+        <v>11976</v>
       </c>
       <c r="E197" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="F197" t="n">
-        <v>6486117</v>
+        <v>24976</v>
       </c>
       <c r="G197" t="n">
-        <v>21575842</v>
+        <v>321832</v>
       </c>
       <c r="H197" t="n">
-        <v>2.51</v>
+        <v>0.116</v>
       </c>
       <c r="I197" t="n">
-        <v>97.48999999999999</v>
+        <v>99.642</v>
       </c>
       <c r="J197" t="n">
-        <v>9.640000000000001</v>
+        <v>207.804</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>St. Barth</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>5507</v>
+        <v>552695</v>
       </c>
       <c r="C198" t="n">
-        <v>6</v>
+        <v>5856</v>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>546537</v>
       </c>
       <c r="E198" t="n">
-        <v>5501</v>
+        <v>302</v>
       </c>
       <c r="F198" t="n">
-        <v>78646</v>
+        <v>3359014</v>
       </c>
       <c r="G198" t="n">
-        <v>9945</v>
+        <v>29266991</v>
       </c>
       <c r="H198" t="n">
-        <v>0.11</v>
+        <v>1.06</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>98.886</v>
       </c>
       <c r="J198" t="n">
-        <v>14.28</v>
+        <v>607.752</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>63993</v>
+        <v>11625195</v>
       </c>
       <c r="C199" t="n">
-        <v>5046</v>
+        <v>43206</v>
       </c>
       <c r="D199" t="n">
-        <v>58947</v>
+        <v>10640971</v>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>941018</v>
       </c>
       <c r="F199" t="n">
-        <v>562941</v>
+        <v>85826548</v>
       </c>
       <c r="G199" t="n">
-        <v>45992020</v>
+        <v>98953541</v>
       </c>
       <c r="H199" t="n">
-        <v>7.89</v>
+        <v>0.372</v>
       </c>
       <c r="I199" t="n">
-        <v>92.11</v>
+        <v>91.53400000000001</v>
       </c>
       <c r="J199" t="n">
-        <v>8.800000000000001</v>
+        <v>738.2809999999999</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>82588</v>
+        <v>11945</v>
       </c>
       <c r="C200" t="n">
-        <v>1408</v>
+        <v>2159</v>
       </c>
       <c r="D200" t="n">
-        <v>0</v>
+        <v>9124</v>
       </c>
       <c r="E200" t="n">
-        <v>81180</v>
+        <v>662</v>
       </c>
       <c r="F200" t="n">
-        <v>242207</v>
+        <v>329592</v>
       </c>
       <c r="G200" t="n">
-        <v>596831</v>
+        <v>31154867</v>
       </c>
       <c r="H200" t="n">
-        <v>1.7</v>
+        <v>18.075</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>76.383</v>
       </c>
       <c r="J200" t="n">
-        <v>2.93</v>
+        <v>2759.247</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Swaziland</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>75191</v>
+        <v>349304</v>
       </c>
       <c r="C201" t="n">
-        <v>1427</v>
+        <v>4069</v>
       </c>
       <c r="D201" t="n">
-        <v>73116</v>
+        <v>341316</v>
       </c>
       <c r="E201" t="n">
-        <v>648</v>
+        <v>3919</v>
       </c>
       <c r="F201" t="n">
-        <v>1048704</v>
+        <v>4112961</v>
       </c>
       <c r="G201" t="n">
-        <v>1184817</v>
+        <v>19470234</v>
       </c>
       <c r="H201" t="n">
-        <v>1.9</v>
+        <v>1.165</v>
       </c>
       <c r="I201" t="n">
-        <v>97.24000000000001</v>
+        <v>97.71299999999999</v>
       </c>
       <c r="J201" t="n">
-        <v>13.95</v>
+        <v>1177.473</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>2754129</v>
+        <v>266359</v>
       </c>
       <c r="C202" t="n">
-        <v>27407</v>
+        <v>5740</v>
       </c>
       <c r="D202" t="n">
-        <v>2726492</v>
+        <v>258888</v>
       </c>
       <c r="E202" t="n">
-        <v>230</v>
+        <v>1731</v>
       </c>
       <c r="F202" t="n">
-        <v>19500873</v>
+        <v>2525756</v>
       </c>
       <c r="G202" t="n">
-        <v>10218971</v>
+        <v>15331428</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>2.155</v>
       </c>
       <c r="I202" t="n">
-        <v>99</v>
+        <v>97.19499999999999</v>
       </c>
       <c r="J202" t="n">
-        <v>7.08</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
-        <v>4453053</v>
-      </c>
-      <c r="C203" t="n">
-        <v>14452</v>
-      </c>
-      <c r="D203" t="n">
-        <v>4438309</v>
-      </c>
-      <c r="E203" t="n">
-        <v>292</v>
-      </c>
-      <c r="F203" t="n">
-        <v>23833472</v>
-      </c>
-      <c r="G203" t="n">
-        <v>8773637</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="I203" t="n">
-        <v>99.67</v>
-      </c>
-      <c r="J203" t="n">
-        <v>5.35</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Syrian Arab Republic</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>57743</v>
-      </c>
-      <c r="C204" t="n">
-        <v>3165</v>
-      </c>
-      <c r="D204" t="n">
-        <v>54578</v>
-      </c>
-      <c r="E204" t="n">
-        <v>0</v>
-      </c>
-      <c r="F204" t="n">
-        <v>146269</v>
-      </c>
-      <c r="G204" t="n">
-        <v>19364809</v>
-      </c>
-      <c r="H204" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="I204" t="n">
-        <v>94.52000000000001</v>
-      </c>
-      <c r="J204" t="n">
-        <v>2.53</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Taiwan</t>
-        </is>
-      </c>
-      <c r="B205" t="n">
-        <v>10241523</v>
-      </c>
-      <c r="C205" t="n">
-        <v>19005</v>
-      </c>
-      <c r="D205" t="n">
-        <v>10222518</v>
-      </c>
-      <c r="E205" t="n">
-        <v>0</v>
-      </c>
-      <c r="F205" t="n">
-        <v>30742304</v>
-      </c>
-      <c r="G205" t="n">
-        <v>23888595</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="I205" t="n">
-        <v>99.81</v>
-      </c>
-      <c r="J205" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Tajikistan</t>
-        </is>
-      </c>
-      <c r="B206" t="n">
-        <v>17786</v>
-      </c>
-      <c r="C206" t="n">
-        <v>125</v>
-      </c>
-      <c r="D206" t="n">
-        <v>17264</v>
-      </c>
-      <c r="E206" t="n">
-        <v>397</v>
-      </c>
-      <c r="F206" t="n">
-        <v>0</v>
-      </c>
-      <c r="G206" t="n">
-        <v>9957464</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="I206" t="n">
-        <v>97.07000000000001</v>
-      </c>
-      <c r="J206" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Tanzania</t>
-        </is>
-      </c>
-      <c r="B207" t="n">
-        <v>43223</v>
-      </c>
-      <c r="C207" t="n">
-        <v>846</v>
-      </c>
-      <c r="D207" t="n">
-        <v>0</v>
-      </c>
-      <c r="E207" t="n">
-        <v>42377</v>
-      </c>
-      <c r="F207" t="n">
-        <v>0</v>
-      </c>
-      <c r="G207" t="n">
-        <v>63298550</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="B208" t="n">
-        <v>4770149</v>
-      </c>
-      <c r="C208" t="n">
-        <v>34586</v>
-      </c>
-      <c r="D208" t="n">
-        <v>4692636</v>
-      </c>
-      <c r="E208" t="n">
-        <v>42927</v>
-      </c>
-      <c r="F208" t="n">
-        <v>17273454</v>
-      </c>
-      <c r="G208" t="n">
-        <v>70078203</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="I208" t="n">
-        <v>98.38</v>
-      </c>
-      <c r="J208" t="n">
-        <v>3.62</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Timor-Leste</t>
-        </is>
-      </c>
-      <c r="B209" t="n">
-        <v>23460</v>
-      </c>
-      <c r="C209" t="n">
-        <v>138</v>
-      </c>
-      <c r="D209" t="n">
-        <v>23102</v>
-      </c>
-      <c r="E209" t="n">
-        <v>220</v>
-      </c>
-      <c r="F209" t="n">
-        <v>278529</v>
-      </c>
-      <c r="G209" t="n">
-        <v>1369429</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="I209" t="n">
-        <v>98.47</v>
-      </c>
-      <c r="J209" t="n">
-        <v>11.87</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Togo</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
-        <v>39572</v>
-      </c>
-      <c r="C210" t="n">
-        <v>290</v>
-      </c>
-      <c r="D210" t="n">
-        <v>39281</v>
-      </c>
-      <c r="E210" t="n">
-        <v>1</v>
-      </c>
-      <c r="F210" t="n">
-        <v>815204</v>
-      </c>
-      <c r="G210" t="n">
-        <v>8680837</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="I210" t="n">
-        <v>99.26000000000001</v>
-      </c>
-      <c r="J210" t="n">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Tokelau</t>
-        </is>
-      </c>
-      <c r="B211" t="n">
-        <v>80</v>
-      </c>
-      <c r="C211" t="n">
-        <v>0</v>
-      </c>
-      <c r="D211" t="n">
-        <v>0</v>
-      </c>
-      <c r="E211" t="n">
-        <v>80</v>
-      </c>
-      <c r="F211" t="n">
-        <v>0</v>
-      </c>
-      <c r="G211" t="n">
-        <v>1378</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Tonga</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
-        <v>16950</v>
-      </c>
-      <c r="C212" t="n">
-        <v>13</v>
-      </c>
-      <c r="D212" t="n">
-        <v>15638</v>
-      </c>
-      <c r="E212" t="n">
-        <v>1299</v>
-      </c>
-      <c r="F212" t="n">
-        <v>535009</v>
-      </c>
-      <c r="G212" t="n">
-        <v>107749</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="I212" t="n">
-        <v>92.25999999999999</v>
-      </c>
-      <c r="J212" t="n">
-        <v>31.56</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Trinidad and Tobago</t>
-        </is>
-      </c>
-      <c r="B213" t="n">
-        <v>191496</v>
-      </c>
-      <c r="C213" t="n">
-        <v>4390</v>
-      </c>
-      <c r="D213" t="n">
-        <v>187078</v>
-      </c>
-      <c r="E213" t="n">
-        <v>28</v>
-      </c>
-      <c r="F213" t="n">
-        <v>913289</v>
-      </c>
-      <c r="G213" t="n">
-        <v>1406585</v>
-      </c>
-      <c r="H213" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="I213" t="n">
-        <v>97.69</v>
-      </c>
-      <c r="J213" t="n">
-        <v>4.77</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>Tunisia</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
-        <v>1153361</v>
-      </c>
-      <c r="C214" t="n">
-        <v>29423</v>
-      </c>
-      <c r="D214" t="n">
-        <v>0</v>
-      </c>
-      <c r="E214" t="n">
-        <v>1123938</v>
-      </c>
-      <c r="F214" t="n">
-        <v>5013383</v>
-      </c>
-      <c r="G214" t="n">
-        <v>12046656</v>
-      </c>
-      <c r="H214" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="n">
-        <v>4.35</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
-        <v>17232066</v>
-      </c>
-      <c r="C215" t="n">
-        <v>102174</v>
-      </c>
-      <c r="D215" t="n">
-        <v>0</v>
-      </c>
-      <c r="E215" t="n">
-        <v>17129892</v>
-      </c>
-      <c r="F215" t="n">
-        <v>162743369</v>
-      </c>
-      <c r="G215" t="n">
-        <v>85561976</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="n">
-        <v>9.44</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>Turks and Caicos Islands</t>
-        </is>
-      </c>
-      <c r="B216" t="n">
-        <v>6752</v>
-      </c>
-      <c r="C216" t="n">
-        <v>40</v>
-      </c>
-      <c r="D216" t="n">
-        <v>6709</v>
-      </c>
-      <c r="E216" t="n">
-        <v>3</v>
-      </c>
-      <c r="F216" t="n">
-        <v>616788</v>
-      </c>
-      <c r="G216" t="n">
-        <v>39741</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="I216" t="n">
-        <v>99.36</v>
-      </c>
-      <c r="J216" t="n">
-        <v>91.34999999999999</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>Tuvalu</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
-        <v>2943</v>
-      </c>
-      <c r="C217" t="n">
-        <v>1</v>
-      </c>
-      <c r="D217" t="n">
-        <v>0</v>
-      </c>
-      <c r="E217" t="n">
-        <v>2942</v>
-      </c>
-      <c r="F217" t="n">
-        <v>0</v>
-      </c>
-      <c r="G217" t="n">
-        <v>12066</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>UAE</t>
-        </is>
-      </c>
-      <c r="B218" t="n">
-        <v>1067030</v>
-      </c>
-      <c r="C218" t="n">
-        <v>2349</v>
-      </c>
-      <c r="D218" t="n">
-        <v>0</v>
-      </c>
-      <c r="E218" t="n">
-        <v>1064681</v>
-      </c>
-      <c r="F218" t="n">
-        <v>200732262</v>
-      </c>
-      <c r="G218" t="n">
-        <v>10081785</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="n">
-        <v>188.12</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="B219" t="n">
-        <v>24910387</v>
-      </c>
-      <c r="C219" t="n">
-        <v>232112</v>
-      </c>
-      <c r="D219" t="n">
-        <v>24678275</v>
-      </c>
-      <c r="E219" t="n">
-        <v>0</v>
-      </c>
-      <c r="F219" t="n">
-        <v>522526476</v>
-      </c>
-      <c r="G219" t="n">
-        <v>68497907</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="I219" t="n">
-        <v>99.07000000000001</v>
-      </c>
-      <c r="J219" t="n">
-        <v>20.98</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="B220" t="n">
-        <v>111820082</v>
-      </c>
-      <c r="C220" t="n">
-        <v>1219487</v>
-      </c>
-      <c r="D220" t="n">
-        <v>109814428</v>
-      </c>
-      <c r="E220" t="n">
-        <v>786167</v>
-      </c>
-      <c r="F220" t="n">
-        <v>1186851502</v>
-      </c>
-      <c r="G220" t="n">
-        <v>334805269</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I220" t="n">
-        <v>98.20999999999999</v>
-      </c>
-      <c r="J220" t="n">
-        <v>10.61</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>Uganda</t>
-        </is>
-      </c>
-      <c r="B221" t="n">
-        <v>172149</v>
-      </c>
-      <c r="C221" t="n">
-        <v>3632</v>
-      </c>
-      <c r="D221" t="n">
-        <v>100431</v>
-      </c>
-      <c r="E221" t="n">
-        <v>68086</v>
-      </c>
-      <c r="F221" t="n">
-        <v>3012408</v>
-      </c>
-      <c r="G221" t="n">
-        <v>48432863</v>
-      </c>
-      <c r="H221" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="I221" t="n">
-        <v>58.34</v>
-      </c>
-      <c r="J221" t="n">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="B222" t="n">
-        <v>5557995</v>
-      </c>
-      <c r="C222" t="n">
-        <v>112418</v>
-      </c>
-      <c r="D222" t="n">
-        <v>5445577</v>
-      </c>
-      <c r="E222" t="n">
-        <v>0</v>
-      </c>
-      <c r="F222" t="n">
-        <v>32603805</v>
-      </c>
-      <c r="G222" t="n">
-        <v>43192122</v>
-      </c>
-      <c r="H222" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="I222" t="n">
-        <v>97.98</v>
-      </c>
-      <c r="J222" t="n">
-        <v>5.87</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="B223" t="n">
-        <v>1041111</v>
-      </c>
-      <c r="C223" t="n">
-        <v>7664</v>
-      </c>
-      <c r="D223" t="n">
-        <v>1030944</v>
-      </c>
-      <c r="E223" t="n">
-        <v>2503</v>
-      </c>
-      <c r="F223" t="n">
-        <v>6114822</v>
-      </c>
-      <c r="G223" t="n">
-        <v>3496016</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="I223" t="n">
-        <v>99.02</v>
-      </c>
-      <c r="J223" t="n">
-        <v>5.87</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>Uzbekistan</t>
-        </is>
-      </c>
-      <c r="B224" t="n">
-        <v>253662</v>
-      </c>
-      <c r="C224" t="n">
-        <v>1637</v>
-      </c>
-      <c r="D224" t="n">
-        <v>241486</v>
-      </c>
-      <c r="E224" t="n">
-        <v>10539</v>
-      </c>
-      <c r="F224" t="n">
-        <v>1377915</v>
-      </c>
-      <c r="G224" t="n">
-        <v>34382084</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="I224" t="n">
-        <v>95.19999999999999</v>
-      </c>
-      <c r="J224" t="n">
-        <v>5.43</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>Vanuatu</t>
-        </is>
-      </c>
-      <c r="B225" t="n">
-        <v>12019</v>
-      </c>
-      <c r="C225" t="n">
-        <v>14</v>
-      </c>
-      <c r="D225" t="n">
-        <v>11976</v>
-      </c>
-      <c r="E225" t="n">
-        <v>29</v>
-      </c>
-      <c r="F225" t="n">
-        <v>24976</v>
-      </c>
-      <c r="G225" t="n">
-        <v>321832</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="I225" t="n">
-        <v>99.64</v>
-      </c>
-      <c r="J225" t="n">
-        <v>2.08</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>Venezuela</t>
-        </is>
-      </c>
-      <c r="B226" t="n">
-        <v>552695</v>
-      </c>
-      <c r="C226" t="n">
-        <v>5856</v>
-      </c>
-      <c r="D226" t="n">
-        <v>546537</v>
-      </c>
-      <c r="E226" t="n">
-        <v>302</v>
-      </c>
-      <c r="F226" t="n">
-        <v>3359014</v>
-      </c>
-      <c r="G226" t="n">
-        <v>29266991</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="I226" t="n">
-        <v>98.89</v>
-      </c>
-      <c r="J226" t="n">
-        <v>6.08</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>Vietnam</t>
-        </is>
-      </c>
-      <c r="B227" t="n">
-        <v>11625195</v>
-      </c>
-      <c r="C227" t="n">
-        <v>43206</v>
-      </c>
-      <c r="D227" t="n">
-        <v>10640971</v>
-      </c>
-      <c r="E227" t="n">
-        <v>941018</v>
-      </c>
-      <c r="F227" t="n">
-        <v>85826548</v>
-      </c>
-      <c r="G227" t="n">
-        <v>98953541</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="I227" t="n">
-        <v>91.53</v>
-      </c>
-      <c r="J227" t="n">
-        <v>7.38</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>Wallis and Futuna</t>
-        </is>
-      </c>
-      <c r="B228" t="n">
-        <v>3550</v>
-      </c>
-      <c r="C228" t="n">
-        <v>8</v>
-      </c>
-      <c r="D228" t="n">
-        <v>438</v>
-      </c>
-      <c r="E228" t="n">
-        <v>3104</v>
-      </c>
-      <c r="F228" t="n">
-        <v>20508</v>
-      </c>
-      <c r="G228" t="n">
-        <v>10982</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="I228" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="J228" t="n">
-        <v>5.78</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>Western Sahara</t>
-        </is>
-      </c>
-      <c r="B229" t="n">
-        <v>10</v>
-      </c>
-      <c r="C229" t="n">
-        <v>1</v>
-      </c>
-      <c r="D229" t="n">
-        <v>9</v>
-      </c>
-      <c r="E229" t="n">
-        <v>0</v>
-      </c>
-      <c r="F229" t="n">
-        <v>0</v>
-      </c>
-      <c r="G229" t="n">
-        <v>626161</v>
-      </c>
-      <c r="H229" t="n">
-        <v>10</v>
-      </c>
-      <c r="I229" t="n">
-        <v>90</v>
-      </c>
-      <c r="J229" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Yemen</t>
-        </is>
-      </c>
-      <c r="B230" t="n">
-        <v>11945</v>
-      </c>
-      <c r="C230" t="n">
-        <v>2159</v>
-      </c>
-      <c r="D230" t="n">
-        <v>9124</v>
-      </c>
-      <c r="E230" t="n">
-        <v>662</v>
-      </c>
-      <c r="F230" t="n">
-        <v>329592</v>
-      </c>
-      <c r="G230" t="n">
-        <v>31154867</v>
-      </c>
-      <c r="H230" t="n">
-        <v>18.07</v>
-      </c>
-      <c r="I230" t="n">
-        <v>76.38000000000001</v>
-      </c>
-      <c r="J230" t="n">
-        <v>27.59</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>Zambia</t>
-        </is>
-      </c>
-      <c r="B231" t="n">
-        <v>349304</v>
-      </c>
-      <c r="C231" t="n">
-        <v>4069</v>
-      </c>
-      <c r="D231" t="n">
-        <v>341316</v>
-      </c>
-      <c r="E231" t="n">
-        <v>3919</v>
-      </c>
-      <c r="F231" t="n">
-        <v>4112961</v>
-      </c>
-      <c r="G231" t="n">
-        <v>19470234</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="I231" t="n">
-        <v>97.70999999999999</v>
-      </c>
-      <c r="J231" t="n">
-        <v>11.77</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="B232" t="n">
-        <v>266359</v>
-      </c>
-      <c r="C232" t="n">
-        <v>5740</v>
-      </c>
-      <c r="D232" t="n">
-        <v>258888</v>
-      </c>
-      <c r="E232" t="n">
-        <v>1731</v>
-      </c>
-      <c r="F232" t="n">
-        <v>2525756</v>
-      </c>
-      <c r="G232" t="n">
-        <v>15331428</v>
-      </c>
-      <c r="H232" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="I232" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="J232" t="n">
-        <v>9.48</v>
+        <v>948.253</v>
       </c>
     </row>
   </sheetData>

--- a/covid_report.xlsx
+++ b/covid_report.xlsx
@@ -432,6 +432,18 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="34" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
